--- a/Company Data.xlsx
+++ b/Company Data.xlsx
@@ -330,2305 +330,2305 @@
     <t>https://www.ally.com/about/social-impact/diversity-inclusion/</t>
   </si>
   <si>
-    <t>Alphabet</t>
+    <t>Altice USA</t>
+  </si>
+  <si>
+    <t>https://www.alticeusa.com/</t>
+  </si>
+  <si>
+    <t>https://www.alticeusa.com/impact/diversity%20and%20inclusion</t>
+  </si>
+  <si>
+    <t>Altria Group</t>
+  </si>
+  <si>
+    <t>https://www.altria.com/</t>
+  </si>
+  <si>
+    <t>https://www.altria.com/about-altria/our-stories/promoting-diversity-and-inclusion-in-our-communities</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/</t>
+  </si>
+  <si>
+    <t>https://www.aboutamazon.com/working-at-amazon/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Amcor</t>
+  </si>
+  <si>
+    <t>https://www.amcor.com/</t>
+  </si>
+  <si>
+    <t>https://www.amcor.com/sustainability-report/</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>Ameren</t>
+  </si>
+  <si>
+    <t>https://www.ameren.com/</t>
+  </si>
+  <si>
+    <t>https://www.ameren.com/company/careers/diversity</t>
+  </si>
+  <si>
+    <t>American Airlines Group</t>
+  </si>
+  <si>
+    <t>https://www.aa.com/</t>
+  </si>
+  <si>
+    <t>https://www.aa.com/i18n/customer-service/about-us/diversity/inclusion-and-diversity.jsp</t>
+  </si>
+  <si>
+    <t>American Axle &amp; Manufacturing</t>
+  </si>
+  <si>
+    <t>https://www.aam.com/</t>
+  </si>
+  <si>
+    <t>https://www.aam-us.org/programs/diversity-equity-accessibility-and-inclusion/</t>
+  </si>
+  <si>
+    <t>American Electric Power</t>
+  </si>
+  <si>
+    <t>https://www.aep.com/</t>
+  </si>
+  <si>
+    <t>https://aepsustainability.com/social/diversity/</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>https://www.americanexpress.com/</t>
+  </si>
+  <si>
+    <t>https://www.americanexpress.com/us/company/global-diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>American Family Insurance Group</t>
+  </si>
+  <si>
+    <t>https://www.amfam.com/</t>
+  </si>
+  <si>
+    <t>https://www.amfam.com/about/careers/why-american-family/diversity</t>
+  </si>
+  <si>
+    <t>American Financial Group</t>
+  </si>
+  <si>
+    <t>https://www.afginc.com/</t>
+  </si>
+  <si>
+    <t>https://www.afginc.com/about-us/corporate-social-responsibility</t>
+  </si>
+  <si>
+    <t>American International Group</t>
+  </si>
+  <si>
+    <t>https://www.aig.com/</t>
+  </si>
+  <si>
+    <t>https://www.aig.com/about-us/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>American Tower</t>
+  </si>
+  <si>
+    <t>https://www.americantower.com/</t>
+  </si>
+  <si>
+    <t>https://www.americantower.com/corporate-responsibility/people.html</t>
+  </si>
+  <si>
+    <t>American Water Works Company</t>
+  </si>
+  <si>
+    <t>https://www.amwater.com/</t>
+  </si>
+  <si>
+    <t>https://www.amwater.com/corp/About-Us/Inclusion-and-Diversity/</t>
+  </si>
+  <si>
+    <t>Ameriprise Financial</t>
+  </si>
+  <si>
+    <t>https://www.ameriprise.com/</t>
+  </si>
+  <si>
+    <t>https://www.ameriprise.com/careers/corporate/supportive-workplace/diversity</t>
+  </si>
+  <si>
+    <t>AmerisourceBergen</t>
+  </si>
+  <si>
+    <t>https://www.amerisourcebergen.com/</t>
+  </si>
+  <si>
+    <t>https://www.amerisourcebergen.com/careers-life-at-abc/diversity</t>
+  </si>
+  <si>
+    <t>AMETEK</t>
+  </si>
+  <si>
+    <t>https://www.ametek.com/</t>
+  </si>
+  <si>
+    <t>https://www.ametek.com/careers-2/diversityandinclusion</t>
+  </si>
+  <si>
+    <t>Amgen</t>
+  </si>
+  <si>
+    <t>https://www.amgen.com/</t>
+  </si>
+  <si>
+    <t>https://www.amgen.com/responsibility/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Amphenol</t>
+  </si>
+  <si>
+    <t>https://www.amphenol.com/</t>
+  </si>
+  <si>
+    <t>https://sustainability.amphenol.com/OurPeople</t>
+  </si>
+  <si>
+    <t>Analog Devices</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/</t>
+  </si>
+  <si>
+    <t>https://www.analog.com/en/company/corporate-social-responsibility/our-impact/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Andersons</t>
+  </si>
+  <si>
+    <t>https://www.andersonsinc.com/</t>
+  </si>
+  <si>
+    <t>https://andersonsinc.com/index.php/careers/culture</t>
+  </si>
+  <si>
+    <t>Anixter International</t>
+  </si>
+  <si>
+    <t>https://www.anixter.com/</t>
+  </si>
+  <si>
+    <t>https://www.anixter.com/en_us/about-us/corporate-responsibility/diversity-program.html</t>
+  </si>
+  <si>
+    <t>ANSYS</t>
+  </si>
+  <si>
+    <t>https://www.ansys.com/</t>
+  </si>
+  <si>
+    <t>https://www.ansys.com/about-ansys/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Anthem</t>
+  </si>
+  <si>
+    <t>https://www.anthem.com/</t>
+  </si>
+  <si>
+    <t>https://www.anthemcorporateresponsibility.com/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Aon</t>
+  </si>
+  <si>
+    <t>https://www.aon.com/</t>
+  </si>
+  <si>
+    <t>https://www.aon.com/about-aon/careers/diversity-and-inclusion-at-aon.jsp</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>https://www.apache.org/</t>
+  </si>
+  <si>
+    <t>https://diversity.apache.org/</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/</t>
+  </si>
+  <si>
+    <t>https://www.apple.com/diversity/</t>
+  </si>
+  <si>
+    <t>Applied Materials</t>
+  </si>
+  <si>
+    <t>https://www.appliedmaterials.com/</t>
+  </si>
+  <si>
+    <t>https://www.appliedmaterials.com/company/corporate-responsibility/peopleandworkplace</t>
+  </si>
+  <si>
+    <t>Aptiv PLC</t>
+  </si>
+  <si>
+    <t>https://www.aptiv.com/</t>
+  </si>
+  <si>
+    <t>https://www.aptiv.com/careers/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Aramark</t>
+  </si>
+  <si>
+    <t>https://www.aramark.com/</t>
+  </si>
+  <si>
+    <t>https://www.aramark.com/careers/why-aramark/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Archer Daniels Midland</t>
+  </si>
+  <si>
+    <t>https://www.adm.com/</t>
+  </si>
+  <si>
+    <t>https://www.adm.com/sustainability</t>
+  </si>
+  <si>
+    <t>Arista Networks</t>
+  </si>
+  <si>
+    <t>https://www.arista.com/</t>
+  </si>
+  <si>
+    <t>https://www.arista.com/en/company/sustainability</t>
+  </si>
+  <si>
+    <t>Arrow Electronics</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/</t>
+  </si>
+  <si>
+    <t>https://www.arrow.com/en/life</t>
+  </si>
+  <si>
+    <t>Arthur J. Gallagher</t>
+  </si>
+  <si>
+    <t>https://www.ajg.com/</t>
+  </si>
+  <si>
+    <t>https://www.ajg.com/us/about-us/inclusion-diversity/</t>
+  </si>
+  <si>
+    <t>Asbury Automotive Group</t>
+  </si>
+  <si>
+    <t>https://www.asburyauto.com/</t>
+  </si>
+  <si>
+    <t>https://socialresponsibility.asburyauto.com/people</t>
+  </si>
+  <si>
+    <t>Ascena Retail Group</t>
+  </si>
+  <si>
+    <t>https://www.ascenaretail.com/</t>
+  </si>
+  <si>
+    <t>https://www.ascenaretail.com/our-culture/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Assurant</t>
+  </si>
+  <si>
+    <t>https://www.assurant.com/</t>
+  </si>
+  <si>
+    <t>https://socialresponsibility.assurant.com/our-story/corporate-responsibility/default.aspx</t>
+  </si>
+  <si>
+    <t>AT&amp;T</t>
+  </si>
+  <si>
+    <t>https://www.att.com/</t>
+  </si>
+  <si>
+    <t>https://about.att.com/pages/diversity</t>
+  </si>
+  <si>
+    <t>Atmos Energy</t>
+  </si>
+  <si>
+    <t>https://www.atmosenergy.com/</t>
+  </si>
+  <si>
+    <t>https://www.atmosenergy.com/careers/atmospirit-culture</t>
+  </si>
+  <si>
+    <t>Auto-Owners Insurance</t>
+  </si>
+  <si>
+    <t>https://www.auto-owners.com/</t>
+  </si>
+  <si>
+    <t>Autodesk</t>
+  </si>
+  <si>
+    <t>https://www.autodesk.com/</t>
+  </si>
+  <si>
+    <t>https://www.autodesk.com/company/diversity-and-belonging</t>
+  </si>
+  <si>
+    <t>Autoliv</t>
+  </si>
+  <si>
+    <t>https://www.autoliv.com/</t>
+  </si>
+  <si>
+    <t>https://www.autoliv.com/sustainability/commit-our-employees</t>
+  </si>
+  <si>
+    <t>Automatic Data Processing</t>
+  </si>
+  <si>
+    <t>https://www.adp.com/</t>
+  </si>
+  <si>
+    <t>https://sustainability.adp.com/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>AutoNation</t>
+  </si>
+  <si>
+    <t>https://www.autonation.com/</t>
+  </si>
+  <si>
+    <t>https://investors.autonation.com/governance/corporate-social-responsibility/default.aspx</t>
+  </si>
+  <si>
+    <t>AutoZone</t>
+  </si>
+  <si>
+    <t>https://www.autozone.com/</t>
+  </si>
+  <si>
+    <t>https://careers.autozone.com/diversity</t>
+  </si>
+  <si>
+    <t>AvalonBay Communities</t>
+  </si>
+  <si>
+    <t>https://www.avaloncommunities.com/</t>
+  </si>
+  <si>
+    <t>https://www.avaloncommunities.com/about-us/corporate-responsibility</t>
+  </si>
+  <si>
+    <t>Avantor</t>
+  </si>
+  <si>
+    <t>https://www.avantorsciences.com/</t>
+  </si>
+  <si>
+    <t>https://www.avantorsciences.com/pages/en/enriching-our-culture</t>
+  </si>
+  <si>
+    <t>Avery Dennison</t>
+  </si>
+  <si>
+    <t>https://www.averydennison.com/</t>
+  </si>
+  <si>
+    <t>https://www.averydennison.com/en/home/about-us/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>Avis Budget Group</t>
+  </si>
+  <si>
+    <t>https://www.avisbudgetgroup.com/</t>
+  </si>
+  <si>
+    <t>https://avisbudgetgroup.com/csr/</t>
+  </si>
+  <si>
+    <t>Avnet</t>
+  </si>
+  <si>
+    <t>https://www.avnet.com/</t>
+  </si>
+  <si>
+    <t>https://www.avnet.com/wps/portal/us/about-avnet/careers/culture-diversity/</t>
+  </si>
+  <si>
+    <t>Bain</t>
+  </si>
+  <si>
+    <t>https://www.bain.com/</t>
+  </si>
+  <si>
+    <t>https://www.bain.com/about/diversity-equity-inclusion/</t>
+  </si>
+  <si>
+    <t>Baker Hughes</t>
+  </si>
+  <si>
+    <t>https://www.bakerhughes.com/</t>
+  </si>
+  <si>
+    <t>https://www.bakerhughes.com/company/corporate-responsibility/people/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>https://www.ball.com/</t>
+  </si>
+  <si>
+    <t>https://www.ball.com/na/about-ball/careers/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>https://www.bankofamerica.com/</t>
+  </si>
+  <si>
+    <t>https://about.bankofamerica.com/en-us/what-guides-us/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>Bank of New York Mellon</t>
+  </si>
+  <si>
+    <t>https://www.bnymellon.com/</t>
+  </si>
+  <si>
+    <t>https://www.bnymellon.com/us/en/about-us/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Baxter International</t>
+  </si>
+  <si>
+    <t>https://www.baxter.com/</t>
+  </si>
+  <si>
+    <t>https://www.baxter.com/careers/inclusion-diversity</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>https://www.bd.com/</t>
+  </si>
+  <si>
+    <t>https://www.bd.com/en-us/company/careers/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>Beacon Roofing Supply</t>
+  </si>
+  <si>
+    <t>https://www.becn.com/</t>
+  </si>
+  <si>
+    <t>https://www.becn.com/corporate-responsibility</t>
+  </si>
+  <si>
+    <t>Bed Bath &amp; Beyond</t>
+  </si>
+  <si>
+    <t>https://www.bedbathandbeyond.com/</t>
+  </si>
+  <si>
+    <t>https://www.bedbathandbeyond.com/store/static/bringinghomeeverywhere</t>
+  </si>
+  <si>
+    <t>Berkshire Hathaway</t>
+  </si>
+  <si>
+    <t>https://www.berkshirehathaway.com/</t>
+  </si>
+  <si>
+    <t>https://www.berkshirehathaway.com/sustainability/sustainability.html</t>
+  </si>
+  <si>
+    <t>Berry Global Group</t>
+  </si>
+  <si>
+    <t>https://www.berryglobal.com/</t>
+  </si>
+  <si>
+    <t>https://www.berryglobal.com/sustainability/social</t>
+  </si>
+  <si>
+    <t>Best Buy</t>
+  </si>
+  <si>
+    <t>https://www.bestbuy.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.bestbuy.com/diversity-and-inclusion/</t>
+  </si>
+  <si>
+    <t>Bio-Rad Laboratories</t>
+  </si>
+  <si>
+    <t>https://www.bio-rad.com/</t>
+  </si>
+  <si>
+    <t>https://www.bio-rad.com/en-us/corporate/community-involvement?ID=MR8IUCKG4</t>
+  </si>
+  <si>
+    <t>Biogen</t>
+  </si>
+  <si>
+    <t>https://www.biogen.com/</t>
+  </si>
+  <si>
+    <t>https://www.biogen.com/en_us/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>BJ's Wholesale Club</t>
+  </si>
+  <si>
+    <t>https://www.bjs.com/</t>
+  </si>
+  <si>
+    <t>https://investors.bjs.com/sustainability/team-members/default.aspx</t>
+  </si>
+  <si>
+    <t>BlackRock</t>
+  </si>
+  <si>
+    <t>https://www.blackrock.com/</t>
+  </si>
+  <si>
+    <t>https://careers.blackrock.com/life-at-blackrock/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>Blackstone Group</t>
+  </si>
+  <si>
+    <t>https://www.blackstone.com/</t>
+  </si>
+  <si>
+    <t>https://www.blackstone.com/careers/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Boeing</t>
+  </si>
+  <si>
+    <t>https://www.boeing.com/</t>
+  </si>
+  <si>
+    <t>https://www.boeing.com/principles/diversity-and-inclusion/index.page</t>
+  </si>
+  <si>
+    <t>Booking Holdings</t>
+  </si>
+  <si>
+    <t>https://www.bookingholdings.com/</t>
+  </si>
+  <si>
+    <t>https://www.bookingholdings.com/corporate-responsibility/</t>
+  </si>
+  <si>
+    <t>Booz Allen Hamiliton</t>
+  </si>
+  <si>
+    <t>https://www.boozallen.com/</t>
+  </si>
+  <si>
+    <t>https://www.boozallen.com/about/diversity-equity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>BorgWarner</t>
+  </si>
+  <si>
+    <t>https://www.borgwarner.com/</t>
+  </si>
+  <si>
+    <t>https://www.borgwarner.com/careers/who-we-are/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Boston Properties</t>
+  </si>
+  <si>
+    <t>https://www.bostonproperties.com/</t>
+  </si>
+  <si>
+    <t>http://www.bostonproperties.com/pages/careers/diversity</t>
+  </si>
+  <si>
+    <t>Boston Scientific</t>
+  </si>
+  <si>
+    <t>https://www.bostonscientific.com/</t>
+  </si>
+  <si>
+    <t>https://www.bostonscientific.com/en-US/careers/working-here/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>Brighthouse Financial</t>
+  </si>
+  <si>
+    <t>https://www.brighthousefinancial.com/</t>
+  </si>
+  <si>
+    <t>Bristol-Myers Squibb</t>
+  </si>
+  <si>
+    <t>https://www.bms.com/</t>
+  </si>
+  <si>
+    <t>https://www.bms.com/about-us/global-diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>Broadcom</t>
+  </si>
+  <si>
+    <t>https://www.broadcom.com/</t>
+  </si>
+  <si>
+    <t>https://www.broadcom.com/company/citizenship/corporate-culture</t>
+  </si>
+  <si>
+    <t>Broadridge Financial Solutions</t>
+  </si>
+  <si>
+    <t>https://www.broadridge.com/</t>
+  </si>
+  <si>
+    <t>https://www.broadridge.com/ca/about/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Brown-Forman</t>
+  </si>
+  <si>
+    <t>https://www.brown-forman.com/</t>
+  </si>
+  <si>
+    <t>https://www.brown-forman.com/diversity/</t>
+  </si>
+  <si>
+    <t>Builders FirstSource</t>
+  </si>
+  <si>
+    <t>https://www.bldr.com/</t>
+  </si>
+  <si>
+    <t>Burlington Stores</t>
+  </si>
+  <si>
+    <t>https://www.burlington.com/</t>
+  </si>
+  <si>
+    <t>https://www.burlingtoninvestors.com/corporate-responsibility/</t>
+  </si>
+  <si>
+    <t>C.H. Robinson Worldwide</t>
+  </si>
+  <si>
+    <t>https://www.chrobinson.com/</t>
+  </si>
+  <si>
+    <t>https://www.chrobinson.com/en-us/about-us/corporate-responsibility/diversity/</t>
+  </si>
+  <si>
+    <t>Cabot Oil &amp; Gas</t>
+  </si>
+  <si>
+    <t>https://www.cabotog.com/</t>
+  </si>
+  <si>
+    <t>https://www.cabotog.com/sustainability/default.aspx</t>
+  </si>
+  <si>
+    <t>Cadence Design Systems</t>
+  </si>
+  <si>
+    <t>https://www.cadence.com/</t>
+  </si>
+  <si>
+    <t>https://www.cadence.com/en_US/home/company/culture/diversity.html</t>
+  </si>
+  <si>
+    <t>Caesars Holdings</t>
+  </si>
+  <si>
+    <t>https://www.caesars.com/</t>
+  </si>
+  <si>
+    <t>https://www.caesars.com/corporate/corporate-social-responsibility/play/diversity-equity-inclusion</t>
+  </si>
+  <si>
+    <t>Calpine</t>
+  </si>
+  <si>
+    <t>https://www.calpine.com/</t>
+  </si>
+  <si>
+    <t>https://www.calpine.com/careers/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Campbell Soup</t>
+  </si>
+  <si>
+    <t>https://www.campbells.com/</t>
+  </si>
+  <si>
+    <t>https://www.campbellsoupcompany.com/category/diversity/</t>
+  </si>
+  <si>
+    <t>Capital One Financial</t>
+  </si>
+  <si>
+    <t>https://www.capitalone.com/</t>
+  </si>
+  <si>
+    <t>https://www.capitalone.com/diversity/</t>
+  </si>
+  <si>
+    <t>Cardinal Health</t>
+  </si>
+  <si>
+    <t>https://www.cardinalhealth.com/</t>
+  </si>
+  <si>
+    <t>https://www.cardinalhealth.com/en/about-us/our-people/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>CarMax</t>
+  </si>
+  <si>
+    <t>https://www.carmax.com/</t>
+  </si>
+  <si>
+    <t>https://www.carmax.com/about-carmax/culture-diversity</t>
+  </si>
+  <si>
+    <t>Carnival</t>
+  </si>
+  <si>
+    <t>https://www.carnival.com/</t>
+  </si>
+  <si>
+    <t>https://www.carnival.com/about-carnival/diversity-and-inclusion.aspx</t>
+  </si>
+  <si>
+    <t>Carrier Global</t>
+  </si>
+  <si>
+    <t>https://www.corporate.carrier.com/</t>
+  </si>
+  <si>
+    <t>https://www.corporate.carrier.com/corporate-responsibility/social-impact/our-employees/</t>
+  </si>
+  <si>
+    <t>Casey's General Stores</t>
+  </si>
+  <si>
+    <t>https://www.caseys.com/</t>
+  </si>
+  <si>
+    <t>https://www.caseys.com/about-us/sustainability</t>
+  </si>
+  <si>
+    <t>Catalent</t>
+  </si>
+  <si>
+    <t>https://www.catalent.com/</t>
+  </si>
+  <si>
+    <t>https://www.catalent.com/about-us/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Caterpillar</t>
+  </si>
+  <si>
+    <t>https://www.caterpillar.com/</t>
+  </si>
+  <si>
+    <t>https://www.caterpillar.com/en/careers/why-caterpillar/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Cboe Global Markets</t>
+  </si>
+  <si>
+    <t>https://www.cboe.com/</t>
+  </si>
+  <si>
+    <t>https://www.cboe.com/about/corporate-social-responsibility/</t>
+  </si>
+  <si>
+    <t>CBRE Group</t>
+  </si>
+  <si>
+    <t>https://www.cbre.us/</t>
+  </si>
+  <si>
+    <t>https://www.cbre.us/about/careers/diversity</t>
+  </si>
+  <si>
+    <t>CDW</t>
+  </si>
+  <si>
+    <t>https://www.cdw.com/</t>
+  </si>
+  <si>
+    <t>https://www.cdw.com/content/cdw/en/about/overview/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>Celanese</t>
+  </si>
+  <si>
+    <t>https://www.celanese.com/</t>
+  </si>
+  <si>
+    <t>https://www.celanese.com/diversity</t>
+  </si>
+  <si>
+    <t>Centene</t>
+  </si>
+  <si>
+    <t>https://www.centene.com/</t>
+  </si>
+  <si>
+    <t>https://www.centene.com/who-we-are/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>CenterPoint Energy</t>
+  </si>
+  <si>
+    <t>https://www.centerpointenergy.com/</t>
+  </si>
+  <si>
+    <t>https://www.centerpointenergy.com/en-us/corporate/about-us/values/diversity</t>
+  </si>
+  <si>
+    <t>Cerner</t>
+  </si>
+  <si>
+    <t>https://www.cerner.com/</t>
+  </si>
+  <si>
+    <t>https://www.cerner.com/about/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>CF Industries Holdings</t>
+  </si>
+  <si>
+    <t>https://www.cfindustries.com/</t>
+  </si>
+  <si>
+    <t>https://www.cfindustries.com/sustainability-at-cf-industries</t>
+  </si>
+  <si>
+    <t>Charles Schwab</t>
+  </si>
+  <si>
+    <t>https://www.schwab.com/</t>
+  </si>
+  <si>
+    <t>https://www.aboutschwab.com/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Charter Communications</t>
+  </si>
+  <si>
+    <t>https://www.spectrum.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.charter.com/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Cheniere Energy</t>
+  </si>
+  <si>
+    <t>https://www.cheniere.com/</t>
+  </si>
+  <si>
+    <t>https://cheniere.com/csr/team/diversity</t>
+  </si>
+  <si>
+    <t>Chesapeake Energy</t>
+  </si>
+  <si>
+    <t>https://www.chk.com/</t>
+  </si>
+  <si>
+    <t>http://www.chk.com/responsibility/our-culture/diversity</t>
+  </si>
+  <si>
+    <t>Chevron</t>
+  </si>
+  <si>
+    <t>https://www.chevron.com/</t>
+  </si>
+  <si>
+    <t>https://www.chevron.com/sustainability/performance/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Chipotle Mexican Grill</t>
+  </si>
+  <si>
+    <t>https://www.chipotle.com/</t>
+  </si>
+  <si>
+    <t>https://www.chipotle.com/about-us/sustainability</t>
+  </si>
+  <si>
+    <t>CHS</t>
+  </si>
+  <si>
+    <t>https://www.chsinc.com/</t>
+  </si>
+  <si>
+    <t>https://www.chs.net/serving-communities/serving-communitiesdiversity/</t>
+  </si>
+  <si>
+    <t>Chubb Limited</t>
+  </si>
+  <si>
+    <t>https://www.chubb.com/</t>
+  </si>
+  <si>
+    <t>https://www.chubb.com/us-en/about-chubb/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Church &amp; Dwight</t>
+  </si>
+  <si>
+    <t>https://www.churchdwight.com/</t>
+  </si>
+  <si>
+    <t>https://careers.churchdwight.com/our-diversity/</t>
+  </si>
+  <si>
+    <t>Cigna</t>
+  </si>
+  <si>
+    <t>https://www.cigna.com/</t>
+  </si>
+  <si>
+    <t>https://www.cigna.com/about-us/corporate-responsibility/report/our-people/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Cincinnati Financial</t>
+  </si>
+  <si>
+    <t>https://www.cinfin.com/</t>
+  </si>
+  <si>
+    <t>https://cincinnatifinancialcorporation.gcs-web.com/sustainability</t>
+  </si>
+  <si>
+    <t>Cintas</t>
+  </si>
+  <si>
+    <t>https://www.cintas.com/</t>
+  </si>
+  <si>
+    <t>https://www.cintascares.com/diversity-and-inclusion/</t>
+  </si>
+  <si>
+    <t>Cisco Systems</t>
+  </si>
+  <si>
+    <t>https://www.cisco.com/</t>
+  </si>
+  <si>
+    <t>https://www.cisco.com/c/en/us/about/inclusion-diversity.html</t>
+  </si>
+  <si>
+    <t>Citigroup</t>
+  </si>
+  <si>
+    <t>https://www.citigroup.com/</t>
+  </si>
+  <si>
+    <t>https://www.citigroup.com/citi/diversity/</t>
+  </si>
+  <si>
+    <t>Citizens Financial Group</t>
+  </si>
+  <si>
+    <t>https://www.citizensbank.com/</t>
+  </si>
+  <si>
+    <t>https://www.citizensbank.com/diversity-equity-and-inclusion/default.aspx</t>
+  </si>
+  <si>
+    <t>Citrix</t>
+  </si>
+  <si>
+    <t>https://www.citrix.com/</t>
+  </si>
+  <si>
+    <t>https://www.citrix.com/about/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Clorox</t>
+  </si>
+  <si>
+    <t>https://www.clorox.com/</t>
+  </si>
+  <si>
+    <t>https://www.thecloroxcompany.com/who-we-are/our-people/inclusion-diversity/</t>
+  </si>
+  <si>
+    <t>CME Group</t>
+  </si>
+  <si>
+    <t>https://www.cmegroup.com/</t>
+  </si>
+  <si>
+    <t>https://www.cmegroup.com/careers/cme-group-diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>CMS Energy</t>
+  </si>
+  <si>
+    <t>https://www.cmsenergy.com/</t>
+  </si>
+  <si>
+    <t>https://www.consumersenergy.com/company/careers/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>https://www.coca-cola.com/</t>
+  </si>
+  <si>
+    <t>https://www.coca-colacompany.com/shared-future/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Cognizant Technology Solutions</t>
+  </si>
+  <si>
+    <t>https://www.cognizant.com/</t>
+  </si>
+  <si>
+    <t>https://www.cognizant.com/about-cognizant/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Colgate-Palmolive</t>
+  </si>
+  <si>
+    <t>https://www.colgatepalmolive.com/</t>
+  </si>
+  <si>
+    <t>https://www.colgatepalmolive.com/en-us/accelerating-change-in-diversity-equity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Comcast</t>
+  </si>
+  <si>
+    <t>https://www.xfinity.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.comcast.com/values/diversity-equity-inclusion</t>
+  </si>
+  <si>
+    <t>Comerica</t>
+  </si>
+  <si>
+    <t>https://www.comerica.com/</t>
+  </si>
+  <si>
+    <t>https://www.comerica.com/diversity</t>
+  </si>
+  <si>
+    <t>Commercial Metals</t>
+  </si>
+  <si>
+    <t>https://www.cmc.com/</t>
+  </si>
+  <si>
+    <t>https://www.cmc.edu/student-imperative/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>CommScope Holding</t>
+  </si>
+  <si>
+    <t>https://www.commscope.com/</t>
+  </si>
+  <si>
+    <t>https://www.commscope.com/corporate-responsibility-and-sustainability/people/</t>
+  </si>
+  <si>
+    <t>Community Health Systems</t>
+  </si>
+  <si>
+    <t>https://www.chs.net/</t>
+  </si>
+  <si>
+    <t>Conagra Brands</t>
+  </si>
+  <si>
+    <t>https://www.conagrabrands.com/</t>
+  </si>
+  <si>
+    <t>https://careers.conagrabrands.com/Diversity</t>
+  </si>
+  <si>
+    <t>Concho Resources</t>
+  </si>
+  <si>
+    <t>https://www.concho.com/</t>
+  </si>
+  <si>
+    <t>https://www.conocophillips.com/about-us/people/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>ConocoPhillips</t>
+  </si>
+  <si>
+    <t>https://www.conocophillips.com/</t>
+  </si>
+  <si>
+    <t>http://www.conocophillips.com/about-us/people/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Consolidated Edison</t>
+  </si>
+  <si>
+    <t>https://www.coned.com/</t>
+  </si>
+  <si>
+    <t>https://www.coned.com/en/about-us/diversity</t>
+  </si>
+  <si>
+    <t>Constellation Brands</t>
+  </si>
+  <si>
+    <t>https://www.cbrands.com/</t>
+  </si>
+  <si>
+    <t>https://www.cbrands.com/responsibility/diversity</t>
+  </si>
+  <si>
+    <t>Copart</t>
+  </si>
+  <si>
+    <t>https://www.copart.com/</t>
+  </si>
+  <si>
+    <t>https://www.copart.com/content/us/en/landing-page/copart-in-the-community</t>
+  </si>
+  <si>
+    <t>Core-Mark Holding</t>
+  </si>
+  <si>
+    <t>https://www.core-mark.com/</t>
+  </si>
+  <si>
+    <t>https://careers.core-mark.com/</t>
+  </si>
+  <si>
+    <t>Corning</t>
+  </si>
+  <si>
+    <t>https://www.corning.com/</t>
+  </si>
+  <si>
+    <t>https://www.corning.com/worldwide/en/sustainability/people/diversity.html</t>
+  </si>
+  <si>
+    <t>Corteva</t>
+  </si>
+  <si>
+    <t>https://www.corteva.com/</t>
+  </si>
+  <si>
+    <t>https://www.corteva.com/who-we-are/our-diversity.html</t>
+  </si>
+  <si>
+    <t>Costco Wholesale</t>
+  </si>
+  <si>
+    <t>https://www.costco.com/</t>
+  </si>
+  <si>
+    <t>https://www.costco.com/sustainability-employees.html</t>
+  </si>
+  <si>
+    <t>Coty</t>
+  </si>
+  <si>
+    <t>https://www.coty.com/</t>
+  </si>
+  <si>
+    <t>https://www.coty.com/sustainability/beauty-of-our-people</t>
+  </si>
+  <si>
+    <t>Crown Castle International</t>
+  </si>
+  <si>
+    <t>https://www.crowncastle.com/</t>
+  </si>
+  <si>
+    <t>https://www.crowncastle.com/investors/corporate-sustainability-reports</t>
+  </si>
+  <si>
+    <t>Crown Holdings</t>
+  </si>
+  <si>
+    <t>https://www.crowncork.com/</t>
+  </si>
+  <si>
+    <t>https://sustainability.crowncork.com/our-people/</t>
+  </si>
+  <si>
+    <t>CSX</t>
+  </si>
+  <si>
+    <t>https://www.csx.com/</t>
+  </si>
+  <si>
+    <t>https://www.csx.com/index.cfm/working-at-csx/learn-more-about-csx/diversity-inclusion-engagement/</t>
+  </si>
+  <si>
+    <t>Cummins</t>
+  </si>
+  <si>
+    <t>https://www.cummins.com/</t>
+  </si>
+  <si>
+    <t>https://www.cummins.com/company/global-impact/diversity</t>
+  </si>
+  <si>
+    <t>CVS Health</t>
+  </si>
+  <si>
+    <t>https://www.cvshealth.com/</t>
+  </si>
+  <si>
+    <t>https://cvshealth.com/about-cvs-health/diversity</t>
+  </si>
+  <si>
+    <t>D.R. Horton</t>
+  </si>
+  <si>
+    <t>https://www.drhorton.com/</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>https://www.dana.com/</t>
+  </si>
+  <si>
+    <t>https://www.dana.com/careers/inclusion/</t>
+  </si>
+  <si>
+    <t>Danaher</t>
+  </si>
+  <si>
+    <t>https://www.danaher.com/</t>
+  </si>
+  <si>
+    <t>http://www.danaher.com/who-we-are/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Darden Restaurants</t>
+  </si>
+  <si>
+    <t>https://www.darden.com/</t>
+  </si>
+  <si>
+    <t>https://www.darden.com/citizenship/people/culture</t>
+  </si>
+  <si>
+    <t>DaVita</t>
+  </si>
+  <si>
+    <t>https://www.davita.com/</t>
+  </si>
+  <si>
+    <t>https://careers.davita.com/diversityandbelonging</t>
+  </si>
+  <si>
+    <t>DCP Midstream</t>
+  </si>
+  <si>
+    <t>https://www.dcpmidstream.com/</t>
+  </si>
+  <si>
+    <t>https://www.dcpmidstream.com/sustainability</t>
+  </si>
+  <si>
+    <t>Dean Foods</t>
+  </si>
+  <si>
+    <t>https://www.deanfoods.com/</t>
+  </si>
+  <si>
+    <t>https://www.deanfoods.com/our-story/corporate-responsibility/social-responsibility/</t>
+  </si>
+  <si>
+    <t>Deere</t>
+  </si>
+  <si>
+    <t>https://www.deere.com/</t>
+  </si>
+  <si>
+    <t>https://www.deere.com/en/our-company/john-deere-careers/why-john-deere/diversity/</t>
+  </si>
+  <si>
+    <t>Delek US Holdings</t>
+  </si>
+  <si>
+    <t>https://www.delekus.com/</t>
+  </si>
+  <si>
+    <t>https://www.delekus.com/social-commitment/</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>https://www.delltechnologies.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.delltechnologies.com/en-us/social-impact/cultivating-inclusion.htm</t>
+  </si>
+  <si>
+    <t>Deloitte</t>
+  </si>
+  <si>
+    <t>https://www.deloitte.com/</t>
+  </si>
+  <si>
+    <t>https://www2.deloitte.com/global/en/pages/about-deloitte/topics/global-diversity-deloitte-is-diversity.html</t>
+  </si>
+  <si>
+    <t>Delta Air Lines</t>
+  </si>
+  <si>
+    <t>https://www.delta.com/</t>
+  </si>
+  <si>
+    <t>https://news.delta.com/category/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Dentsply Sirona</t>
+  </si>
+  <si>
+    <t>https://www.dentsplysirona.com/</t>
+  </si>
+  <si>
+    <t>https://www.dentsplysirona.com/en/about-dentsply-sirona/corporate-social-responsibility.html</t>
+  </si>
+  <si>
+    <t>Devon Energy</t>
+  </si>
+  <si>
+    <t>https://www.devonenergy.com/</t>
+  </si>
+  <si>
+    <t>https://www.devonenergy.com/sustainability/workforce/inclusion-diversity</t>
+  </si>
+  <si>
+    <t>DexCom</t>
+  </si>
+  <si>
+    <t>https://www.dexcom.com/</t>
+  </si>
+  <si>
+    <t>Diamondback Energy</t>
+  </si>
+  <si>
+    <t>https://www.diamondbackenergy.com/</t>
+  </si>
+  <si>
+    <t>https://www.diamondbackenergy.com/about/sustainability</t>
+  </si>
+  <si>
+    <t>Dick's Sporting Goods</t>
+  </si>
+  <si>
+    <t>https://www.dickssportinggoods.com/</t>
+  </si>
+  <si>
+    <t>https://www.dickssportinggoods.jobs/inclusion-and-diversity/</t>
+  </si>
+  <si>
+    <t>Digital Realty Trust</t>
+  </si>
+  <si>
+    <t>https://www.digitalrealty.com/</t>
+  </si>
+  <si>
+    <t>https://www.digitalrealty.com/about/sustainability</t>
+  </si>
+  <si>
+    <t>Dillard's</t>
+  </si>
+  <si>
+    <t>https://www.dillards.com/</t>
+  </si>
+  <si>
+    <t>https://careers.dillards.com/Careers/information/diversity</t>
+  </si>
+  <si>
+    <t>Discover Financial Services</t>
+  </si>
+  <si>
+    <t>https://www.discover.com/</t>
+  </si>
+  <si>
+    <t>https://www.discover.com/company/corporate-responsibility/</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>https://www.discovery.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.discovery.com/environmental-social-governance/our-people/</t>
+  </si>
+  <si>
+    <t>DISH Network</t>
+  </si>
+  <si>
+    <t>https://www.dish.com/</t>
+  </si>
+  <si>
+    <t>https://careers.dish.com/life/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Dollar General</t>
+  </si>
+  <si>
+    <t>https://www.dollargeneral.com/</t>
+  </si>
+  <si>
+    <t>https://careers.dollargeneral.com/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Dollar Tree</t>
+  </si>
+  <si>
+    <t>https://www.dollartree.com/</t>
+  </si>
+  <si>
+    <t>https://www.dollartreeinfo.com/corporate-governances</t>
+  </si>
+  <si>
+    <t>Dominion Energy</t>
+  </si>
+  <si>
+    <t>https://www.dominionenergy.com/</t>
+  </si>
+  <si>
+    <t>https://sustainability.dominionenergy.com/retaining-talent/diversity-and-inclusion/</t>
+  </si>
+  <si>
+    <t>Domino's Pizza</t>
+  </si>
+  <si>
+    <t>https://www.dominos.com/</t>
+  </si>
+  <si>
+    <t>https://biz.dominos.com/about/diversity/</t>
+  </si>
+  <si>
+    <t>Dover</t>
+  </si>
+  <si>
+    <t>https://www.doversaddlery.com/</t>
+  </si>
+  <si>
+    <t>https://www.doversaddlery.com/horse-power/a/horsepower/</t>
+  </si>
+  <si>
+    <t>Dow</t>
+  </si>
+  <si>
+    <t>https://www.dow.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.dow.com/en-us/about/company/beliefs-and-culture/diversity.html</t>
+  </si>
+  <si>
+    <t>DTE Energy</t>
+  </si>
+  <si>
+    <t>https://www.newlook.dteenergy.com/</t>
+  </si>
+  <si>
+    <t>https://careers.dteenergy.com/content/Diversity-and-Inclusion/?locale=en_US</t>
+  </si>
+  <si>
+    <t>Duke Energy</t>
+  </si>
+  <si>
+    <t>https://www.duke-energy.com/</t>
+  </si>
+  <si>
+    <t>https://www.duke-energy.com/Our-Company/About-Us/Diversity</t>
+  </si>
+  <si>
+    <t>Duke Realty</t>
+  </si>
+  <si>
+    <t>https://www.dukerealty.com/</t>
+  </si>
+  <si>
+    <t>https://www.dukerealty.com/corporate-responsibility/social/</t>
+  </si>
+  <si>
+    <t>DuPont</t>
+  </si>
+  <si>
+    <t>https://www.dupont.com/</t>
+  </si>
+  <si>
+    <t>https://www.dupont.com/careers/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>DXC Technology</t>
+  </si>
+  <si>
+    <t>https://www.dxc.technology/</t>
+  </si>
+  <si>
+    <t>https://www.dxc.technology/about_us/ahp/97733-inclusion_and_diversity</t>
+  </si>
+  <si>
+    <t>Eastman Chemical</t>
+  </si>
+  <si>
+    <t>https://www.eastman.com/</t>
+  </si>
+  <si>
+    <t>https://www.eastman.com/Company/About_Eastman/Pages/Diversity-Inclusion.aspx</t>
+  </si>
+  <si>
+    <t>Eaton</t>
+  </si>
+  <si>
+    <t>https://www.eaton.com/</t>
+  </si>
+  <si>
+    <t>https://www.eaton.com/us/en-us/company/inclusion-diversity.html</t>
+  </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/</t>
+  </si>
+  <si>
+    <t>https://www.ebayinc.com/company/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Ecolab</t>
+  </si>
+  <si>
+    <t>https://www.ecolab.com/</t>
+  </si>
+  <si>
+    <t>https://www.ecolab.com/about/corporate-responsibility/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Edison International</t>
+  </si>
+  <si>
+    <t>https://www.edison.com/</t>
+  </si>
+  <si>
+    <t>https://energized.edison.com/stories/diversity-equity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Edward Jones (Jones Financial Companies)</t>
+  </si>
+  <si>
+    <t>https://www.edwardjones.com/</t>
+  </si>
+  <si>
+    <t>https://www.edwardjones.com/about/inclusion-diversity-equity-commitments.html</t>
+  </si>
+  <si>
+    <t>Edwards Lifesciences</t>
+  </si>
+  <si>
+    <t>https://www.edwards.com/</t>
+  </si>
+  <si>
+    <t>https://www.edwards.com/diversity</t>
+  </si>
+  <si>
+    <t>Electronic Arts</t>
+  </si>
+  <si>
+    <t>https://www.ea.com/</t>
+  </si>
+  <si>
+    <t>https://www.ea.com/commitments/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>Eli Lilly</t>
+  </si>
+  <si>
+    <t>https://www.lilly.com/</t>
+  </si>
+  <si>
+    <t>https://www.lilly.com/operating-responsibly/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>EMCOR Group</t>
+  </si>
+  <si>
+    <t>https://www.emcorgroup.com/</t>
+  </si>
+  <si>
+    <t>https://emcorgroup.com/about-us/sustainability-report</t>
+  </si>
+  <si>
+    <t>Emerson Electric</t>
+  </si>
+  <si>
+    <t>https://www.emerson.com/</t>
+  </si>
+  <si>
+    <t>https://www.emerson.com/en-us/careers/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Energy Transfer</t>
+  </si>
+  <si>
+    <t>https://www.energytransfer.com/</t>
+  </si>
+  <si>
+    <t>https://www.energytransfer.com/corporate-responsibility/</t>
+  </si>
+  <si>
+    <t>EnLink Midstream</t>
+  </si>
+  <si>
+    <t>https://www.enlink.com/</t>
+  </si>
+  <si>
+    <t>https://www.enlink.com/sustainability/</t>
+  </si>
+  <si>
+    <t>Entergy</t>
+  </si>
+  <si>
+    <t>https://www.entergy.com/</t>
+  </si>
+  <si>
+    <t>https://www.entergy.com/about-us/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Enterprise Products Partners</t>
+  </si>
+  <si>
+    <t>https://www.enterpriseproducts.com/</t>
+  </si>
+  <si>
+    <t>https://www.enterpriseproducts.com/careers/diversity</t>
+  </si>
+  <si>
+    <t>EOG Resources</t>
+  </si>
+  <si>
+    <t>https://www.eogresources.com/</t>
+  </si>
+  <si>
+    <t>https://www.eogresources.com/culture</t>
+  </si>
+  <si>
+    <t>Equifax</t>
+  </si>
+  <si>
+    <t>https://www.equifax.com/</t>
+  </si>
+  <si>
+    <t>https://www.equifax.com/about-equifax/inclusion-diversity/</t>
+  </si>
+  <si>
+    <t>Equinix</t>
+  </si>
+  <si>
+    <t>https://www.equinix.com/</t>
+  </si>
+  <si>
+    <t>https://sustainability.equinix.com/social/i-belong/</t>
+  </si>
+  <si>
+    <t>Equitable Holdings</t>
+  </si>
+  <si>
+    <t>https://www.equitableholdings.com/</t>
+  </si>
+  <si>
+    <t>https://equitable.com/about-us/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Equity Residential</t>
+  </si>
+  <si>
+    <t>https://www.equityapartments.com/</t>
+  </si>
+  <si>
+    <t>http://investors.equityapartments.com/Sustainability/Index?KeyGenPage=1073748860</t>
+  </si>
+  <si>
+    <t>Erie Insurance Group</t>
+  </si>
+  <si>
+    <t>https://www.erieinsurance.com/</t>
+  </si>
+  <si>
+    <t>https://www.erieinsurance.com/careers/diversity</t>
+  </si>
+  <si>
+    <t>Ernst &amp; Young</t>
+  </si>
+  <si>
+    <t>https://www.ey.com/</t>
+  </si>
+  <si>
+    <t>https://www.ey.com/en_us/diversity-inclusiveness</t>
+  </si>
+  <si>
+    <t>Essex Property Trust,</t>
+  </si>
+  <si>
+    <t>https://www.essexapartmenthomes.com/</t>
+  </si>
+  <si>
+    <t>http://investors.essexapartmenthomes.com/corporate-information/corporate-profile/default.aspx</t>
+  </si>
+  <si>
+    <t>Estée Lauder</t>
+  </si>
+  <si>
+    <t>https://www.m.esteelauder.com/</t>
+  </si>
+  <si>
+    <t>https://www.elcompanies.com/en/careers/why-work-here/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/</t>
+  </si>
+  <si>
+    <t>https://blog.etsy.com/news/2020/expanding-our-diversity-inclusion-efforts/</t>
+  </si>
+  <si>
+    <t>Everest Re Group Ltd.</t>
+  </si>
+  <si>
+    <t>https://www.everestre.com/</t>
+  </si>
+  <si>
+    <t>https://www.everestre.com/en/Corporate-Responsibility/Our-People</t>
+  </si>
+  <si>
+    <t>Evergy</t>
+  </si>
+  <si>
+    <t>https://www.evergy.com/</t>
+  </si>
+  <si>
+    <t>https://www.evergy.com/careers/diversity</t>
+  </si>
+  <si>
+    <t>Eversource Energy</t>
+  </si>
+  <si>
+    <t>https://www.eversource.com/</t>
+  </si>
+  <si>
+    <t>https://www.eversource.com/content/general/about/community/supporting-the-community/sustainability-in-action</t>
+  </si>
+  <si>
+    <t>Exelon</t>
+  </si>
+  <si>
+    <t>https://www.exeloncorp.com/</t>
+  </si>
+  <si>
+    <t>https://jobs.exeloncorp.com/pages/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Expedia Group</t>
+  </si>
+  <si>
+    <t>https://www.expediagroup.com/</t>
+  </si>
+  <si>
+    <t>https://www.expediagroup.com/about/diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Expeditors Intl. of Washington</t>
+  </si>
+  <si>
+    <t>https://www.expeditors.com/</t>
+  </si>
+  <si>
+    <t>https://www.expeditors.com/about-us/culture</t>
+  </si>
+  <si>
+    <t>Extra Space Storage</t>
+  </si>
+  <si>
+    <t>https://www.extraspace.com/</t>
+  </si>
+  <si>
+    <t>https://www.extraspace.com/blog/about-extra-space-storage/extra-space-storage-expands-its-commitment-to-diversity-inclusion/</t>
+  </si>
+  <si>
+    <t>Exxon Mobil</t>
+  </si>
+  <si>
+    <t>https://www.corporate.exxonmobil.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.exxonmobil.com/Company/Careers/Global-diversity</t>
+  </si>
+  <si>
+    <t>F5 Networks</t>
+  </si>
+  <si>
+    <t>https://www.f5.com/</t>
+  </si>
+  <si>
+    <t>https://www.f5.com/company/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>https://diversity.fb.com/</t>
+  </si>
+  <si>
+    <t>Fannie Mae</t>
+  </si>
+  <si>
+    <t>https://www.fanniemae.com/</t>
+  </si>
+  <si>
+    <t>https://www.fanniemae.com/about-us/who-we-are/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Farmers Insurance Exchange</t>
+  </si>
+  <si>
+    <t>https://www.farmers.com/</t>
+  </si>
+  <si>
+    <t>https://www.farmers.com/careers/culture-diversity/</t>
+  </si>
+  <si>
+    <t>Fastenal Co</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/</t>
+  </si>
+  <si>
+    <t>https://www.fastenal.com/en/517/military,-veterans-and-diversity</t>
+  </si>
+  <si>
+    <t>Federal Realty Investment Trust</t>
+  </si>
+  <si>
+    <t>https://www.federalrealty.com/</t>
+  </si>
+  <si>
+    <t>https://www.federalrealty.com/about/sustainability/</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>https://www.fedex.com/</t>
+  </si>
+  <si>
+    <t>https://www.fedex.com/en-us/about/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Fidelity National Financial</t>
+  </si>
+  <si>
+    <t>https://www.fnf.com/</t>
+  </si>
+  <si>
+    <t>Fidelity National Information Services</t>
+  </si>
+  <si>
+    <t>https://www.fisglobal.com/</t>
+  </si>
+  <si>
+    <t>https://careers.fisglobal.com/us/en/inclusion-diversity</t>
+  </si>
+  <si>
+    <t>Fifth Third Bancorp</t>
+  </si>
+  <si>
+    <t>https://www.53.com/</t>
+  </si>
+  <si>
+    <t>https://www.53.com/content/fifth-third/en/personal-banking/about/diversity-at-fifth-third.html</t>
+  </si>
+  <si>
+    <t>First American Financial</t>
+  </si>
+  <si>
+    <t>https://www.firstam.com/</t>
+  </si>
+  <si>
+    <t>https://careers.firstam.com/diversity/</t>
+  </si>
+  <si>
+    <t>First Republic Bank</t>
+  </si>
+  <si>
+    <t>https://www.firstrepublic.com/</t>
+  </si>
+  <si>
+    <t>https://www.firstrepublic.com/resource/commitment-to-supporting-equality</t>
+  </si>
+  <si>
+    <t>FirstEnergy</t>
+  </si>
+  <si>
+    <t>https://www.firstenergycorp.com/</t>
+  </si>
+  <si>
+    <t>https://www.firstenergycorp.com/careers/diversity_inclusion.html</t>
+  </si>
+  <si>
+    <t>Fiserv</t>
+  </si>
+  <si>
+    <t>https://www.fiserv.com/</t>
+  </si>
+  <si>
+    <t>https://www.fiserv.com/en/about-fiserv/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>FleetCor Technologies</t>
+  </si>
+  <si>
+    <t>https://www.fleetcor.com/</t>
+  </si>
+  <si>
+    <t>FLIR Systems</t>
+  </si>
+  <si>
+    <t>https://www.flir.com/</t>
+  </si>
+  <si>
+    <t>https://www.flir.com/about/hero/</t>
+  </si>
+  <si>
+    <t>Flowserve</t>
+  </si>
+  <si>
+    <t>https://www.flowserve.com/</t>
+  </si>
+  <si>
+    <t>https://www.flowserve.com/en/more/about-company/culture</t>
+  </si>
+  <si>
+    <t>Fluor</t>
+  </si>
+  <si>
+    <t>https://www.fluor.com/</t>
+  </si>
+  <si>
+    <t>https://www.fluor.com/sustainability/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>FM Global</t>
+  </si>
+  <si>
+    <t>https://www.fmglobal.com/</t>
+  </si>
+  <si>
+    <t>https://www.fmglobal.com/careers/diversity</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>https://www.fmc.com/</t>
+  </si>
+  <si>
+    <t>https://www.fmc.com/en/company/diversity-inclusion</t>
+  </si>
+  <si>
+    <t>Foot Locker</t>
+  </si>
+  <si>
+    <t>https://www.footlocker.com/</t>
+  </si>
+  <si>
+    <t>https://investors.footlocker-inc.com/esg/opportunity</t>
+  </si>
+  <si>
+    <t>Ford Motor</t>
+  </si>
+  <si>
+    <t>https://www.ford.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.ford.com/careers/inclusive-hiring/diversity.html</t>
+  </si>
+  <si>
+    <t>Fortinet</t>
+  </si>
+  <si>
+    <t>https://www.fortinet.com/</t>
+  </si>
+  <si>
+    <t>https://www.fortinet.com/corporate/about-us/corporate-social-responsibility</t>
+  </si>
+  <si>
+    <t>Fortive</t>
+  </si>
+  <si>
+    <t>https://www.fortive.com/</t>
+  </si>
+  <si>
+    <t>https://fortive.com/inclusion-diversity</t>
+  </si>
+  <si>
+    <t>Fortune Brands Home &amp; Security</t>
+  </si>
+  <si>
+    <t>https://www.fbhs.com/</t>
+  </si>
+  <si>
+    <t>https://www.fbhs.com/global-citizenship/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>https://www.foxnews.com/</t>
+  </si>
+  <si>
+    <t>https://foxcareers.com/LifeAtFox/DiversityandInclusion</t>
+  </si>
+  <si>
+    <t>Franklin Resources</t>
+  </si>
+  <si>
+    <t>https://www.franklinresources.com/</t>
+  </si>
+  <si>
+    <t>https://www.franklinresources.com/resources/diversity-and-inclusion</t>
+  </si>
+  <si>
+    <t>Freddie Mac</t>
+  </si>
+  <si>
+    <t>https://www.freddiemac.com/</t>
+  </si>
+  <si>
+    <t>http://www.freddiemac.com/about/people/</t>
+  </si>
+  <si>
+    <t>Freeport-McMoRan</t>
+  </si>
+  <si>
+    <t>https://www.fcx.com/</t>
+  </si>
+  <si>
+    <t>https://fcx.com/sustainability/people/diversity</t>
+  </si>
+  <si>
+    <t>Frontier Communications</t>
+  </si>
+  <si>
+    <t>https://www.frontier.com/</t>
+  </si>
+  <si>
+    <t>https://frontier.com/corporate/responsibility/home</t>
+  </si>
+  <si>
+    <t>GameStop</t>
+  </si>
+  <si>
+    <t>https://www.gamestop.com/</t>
+  </si>
+  <si>
+    <t>https://careers.gamestop.com/en-US/page/culture</t>
+  </si>
+  <si>
+    <t>Gap</t>
+  </si>
+  <si>
+    <t>https://www.gap.com/</t>
+  </si>
+  <si>
+    <t>https://www.gapinc.com/en-us/values/equality-belonging</t>
+  </si>
+  <si>
+    <t>Garmin Ltd.</t>
+  </si>
+  <si>
+    <t>https://www.garmin.com/</t>
+  </si>
+  <si>
+    <t>https://careers-us.garmin.com/us/en/diversity</t>
+  </si>
+  <si>
+    <t>Gartner</t>
+  </si>
+  <si>
+    <t>https://www.gartner.com/</t>
+  </si>
+  <si>
+    <t>https://jobs.gartner.com/inclusion</t>
+  </si>
+  <si>
+    <t>General Dynamics</t>
+  </si>
+  <si>
+    <t>https://www.gd.com/</t>
+  </si>
+  <si>
+    <t>https://www.gd.com/careers/diversity</t>
+  </si>
+  <si>
+    <t>General Electric</t>
+  </si>
+  <si>
+    <t>https://www.ge.com/</t>
+  </si>
+  <si>
+    <t>https://jobs.gecareers.com/global/en/diversity-at-ge</t>
+  </si>
+  <si>
+    <t>General Mills</t>
+  </si>
+  <si>
+    <t>https://www.generalmills.com/</t>
+  </si>
+  <si>
+    <t>https://www.generalmills.com/en/Responsibility/Global%20Inclusion</t>
+  </si>
+  <si>
+    <t>General Motors</t>
+  </si>
+  <si>
+    <t>https://www.gm.com/</t>
+  </si>
+  <si>
+    <t>https://www.gm.com/our-stories/culture/gm-builds-winning-culture-with-diversity.html</t>
+  </si>
+  <si>
+    <t>Genuine Parts</t>
+  </si>
+  <si>
+    <t>https://www.genpt.com/</t>
+  </si>
+  <si>
+    <t>https://jobs.genpt.com/why-choose-gpc/diversity_banner/</t>
+  </si>
+  <si>
+    <t>Genworth Financial</t>
+  </si>
+  <si>
+    <t>https://www.genworth.com/</t>
+  </si>
+  <si>
+    <t>https://www.genworth.com/about-us/building-careers/diversity-and-inclusion.html</t>
+  </si>
+  <si>
+    <t>Gilead Sciences</t>
+  </si>
+  <si>
+    <t>https://www.gilead.com/</t>
+  </si>
+  <si>
+    <t>https://www.gilead.com/careers/inclusion-and-diversity</t>
+  </si>
+  <si>
+    <t>Global Partners</t>
+  </si>
+  <si>
+    <t>https://www.globalp.com/</t>
+  </si>
+  <si>
+    <t>https://www.globalp.com/about/esg/</t>
+  </si>
+  <si>
+    <t>Global Payments</t>
+  </si>
+  <si>
+    <t>https://www.globalpaymentsinc.com/</t>
+  </si>
+  <si>
+    <t>https://investors.globalpaymentsinc.com/Global-Responsibility/default.aspx</t>
+  </si>
+  <si>
+    <t>Globe Life</t>
+  </si>
+  <si>
+    <t>https://www.home.globelifeinsurance.com/</t>
+  </si>
+  <si>
+    <t>https://careers.globelifeinsurance.com/your-life</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Group</t>
+  </si>
+  <si>
+    <t>https://www.goldmansachs.com/</t>
+  </si>
+  <si>
+    <t>https://www.goldmansachs.com/our-firm/people-and-culture/</t>
+  </si>
+  <si>
+    <t>Goodyear Tire &amp; Rubber</t>
+  </si>
+  <si>
+    <t>https://www.corporate.goodyear.com/</t>
+  </si>
+  <si>
+    <t>https://corporate.goodyear.com/en-US/responsibility/inspiring-culture/diversity-inclusion.html</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
   <si>
     <t>https://abc.xyz/</t>
   </si>
   <si>
     <t>https://diversity.google/</t>
-  </si>
-  <si>
-    <t>Altice USA</t>
-  </si>
-  <si>
-    <t>https://www.alticeusa.com/</t>
-  </si>
-  <si>
-    <t>https://www.alticeusa.com/impact/diversity%20and%20inclusion</t>
-  </si>
-  <si>
-    <t>Altria Group</t>
-  </si>
-  <si>
-    <t>https://www.altria.com/</t>
-  </si>
-  <si>
-    <t>https://www.altria.com/about-altria/our-stories/promoting-diversity-and-inclusion-in-our-communities</t>
-  </si>
-  <si>
-    <t>Amazon.com</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/</t>
-  </si>
-  <si>
-    <t>https://www.aboutamazon.com/working-at-amazon/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Amcor</t>
-  </si>
-  <si>
-    <t>https://www.amcor.com/</t>
-  </si>
-  <si>
-    <t>https://www.amcor.com/sustainability-report/</t>
-  </si>
-  <si>
-    <t>AMD</t>
-  </si>
-  <si>
-    <t>Ameren</t>
-  </si>
-  <si>
-    <t>https://www.ameren.com/</t>
-  </si>
-  <si>
-    <t>https://www.ameren.com/company/careers/diversity</t>
-  </si>
-  <si>
-    <t>American Airlines Group</t>
-  </si>
-  <si>
-    <t>https://www.aa.com/</t>
-  </si>
-  <si>
-    <t>https://www.aa.com/i18n/customer-service/about-us/diversity/inclusion-and-diversity.jsp</t>
-  </si>
-  <si>
-    <t>American Axle &amp; Manufacturing</t>
-  </si>
-  <si>
-    <t>https://www.aam.com/</t>
-  </si>
-  <si>
-    <t>https://www.aam-us.org/programs/diversity-equity-accessibility-and-inclusion/</t>
-  </si>
-  <si>
-    <t>American Electric Power</t>
-  </si>
-  <si>
-    <t>https://www.aep.com/</t>
-  </si>
-  <si>
-    <t>https://aepsustainability.com/social/diversity/</t>
-  </si>
-  <si>
-    <t>American Express</t>
-  </si>
-  <si>
-    <t>https://www.americanexpress.com/</t>
-  </si>
-  <si>
-    <t>https://www.americanexpress.com/us/company/global-diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>American Family Insurance Group</t>
-  </si>
-  <si>
-    <t>https://www.amfam.com/</t>
-  </si>
-  <si>
-    <t>https://www.amfam.com/about/careers/why-american-family/diversity</t>
-  </si>
-  <si>
-    <t>American Financial Group</t>
-  </si>
-  <si>
-    <t>https://www.afginc.com/</t>
-  </si>
-  <si>
-    <t>https://www.afginc.com/about-us/corporate-social-responsibility</t>
-  </si>
-  <si>
-    <t>American International Group</t>
-  </si>
-  <si>
-    <t>https://www.aig.com/</t>
-  </si>
-  <si>
-    <t>https://www.aig.com/about-us/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>American Tower</t>
-  </si>
-  <si>
-    <t>https://www.americantower.com/</t>
-  </si>
-  <si>
-    <t>https://www.americantower.com/corporate-responsibility/people.html</t>
-  </si>
-  <si>
-    <t>American Water Works Company</t>
-  </si>
-  <si>
-    <t>https://www.amwater.com/</t>
-  </si>
-  <si>
-    <t>https://www.amwater.com/corp/About-Us/Inclusion-and-Diversity/</t>
-  </si>
-  <si>
-    <t>Ameriprise Financial</t>
-  </si>
-  <si>
-    <t>https://www.ameriprise.com/</t>
-  </si>
-  <si>
-    <t>https://www.ameriprise.com/careers/corporate/supportive-workplace/diversity</t>
-  </si>
-  <si>
-    <t>AmerisourceBergen</t>
-  </si>
-  <si>
-    <t>https://www.amerisourcebergen.com/</t>
-  </si>
-  <si>
-    <t>https://www.amerisourcebergen.com/careers-life-at-abc/diversity</t>
-  </si>
-  <si>
-    <t>AMETEK</t>
-  </si>
-  <si>
-    <t>https://www.ametek.com/</t>
-  </si>
-  <si>
-    <t>https://www.ametek.com/careers-2/diversityandinclusion</t>
-  </si>
-  <si>
-    <t>Amgen</t>
-  </si>
-  <si>
-    <t>https://www.amgen.com/</t>
-  </si>
-  <si>
-    <t>https://www.amgen.com/responsibility/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Amphenol</t>
-  </si>
-  <si>
-    <t>https://www.amphenol.com/</t>
-  </si>
-  <si>
-    <t>https://sustainability.amphenol.com/OurPeople</t>
-  </si>
-  <si>
-    <t>Analog Devices</t>
-  </si>
-  <si>
-    <t>https://www.analog.com/</t>
-  </si>
-  <si>
-    <t>https://www.analog.com/en/company/corporate-social-responsibility/our-impact/diversity-inclusion.html</t>
-  </si>
-  <si>
-    <t>Andersons</t>
-  </si>
-  <si>
-    <t>https://www.andersonsinc.com/</t>
-  </si>
-  <si>
-    <t>https://andersonsinc.com/index.php/careers/culture</t>
-  </si>
-  <si>
-    <t>Anixter International</t>
-  </si>
-  <si>
-    <t>https://www.anixter.com/</t>
-  </si>
-  <si>
-    <t>https://www.anixter.com/en_us/about-us/corporate-responsibility/diversity-program.html</t>
-  </si>
-  <si>
-    <t>ANSYS</t>
-  </si>
-  <si>
-    <t>https://www.ansys.com/</t>
-  </si>
-  <si>
-    <t>https://www.ansys.com/about-ansys/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Anthem</t>
-  </si>
-  <si>
-    <t>https://www.anthem.com/</t>
-  </si>
-  <si>
-    <t>https://www.anthemcorporateresponsibility.com/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Aon</t>
-  </si>
-  <si>
-    <t>https://www.aon.com/</t>
-  </si>
-  <si>
-    <t>https://www.aon.com/about-aon/careers/diversity-and-inclusion-at-aon.jsp</t>
-  </si>
-  <si>
-    <t>Apache</t>
-  </si>
-  <si>
-    <t>https://www.apache.org/</t>
-  </si>
-  <si>
-    <t>https://diversity.apache.org/</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>https://www.apple.com/</t>
-  </si>
-  <si>
-    <t>https://www.apple.com/diversity/</t>
-  </si>
-  <si>
-    <t>Applied Materials</t>
-  </si>
-  <si>
-    <t>https://www.appliedmaterials.com/</t>
-  </si>
-  <si>
-    <t>https://www.appliedmaterials.com/company/corporate-responsibility/peopleandworkplace</t>
-  </si>
-  <si>
-    <t>Aptiv PLC</t>
-  </si>
-  <si>
-    <t>https://www.aptiv.com/</t>
-  </si>
-  <si>
-    <t>https://www.aptiv.com/careers/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Aramark</t>
-  </si>
-  <si>
-    <t>https://www.aramark.com/</t>
-  </si>
-  <si>
-    <t>https://www.aramark.com/careers/why-aramark/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Archer Daniels Midland</t>
-  </si>
-  <si>
-    <t>https://www.adm.com/</t>
-  </si>
-  <si>
-    <t>https://www.adm.com/sustainability</t>
-  </si>
-  <si>
-    <t>Arista Networks</t>
-  </si>
-  <si>
-    <t>https://www.arista.com/</t>
-  </si>
-  <si>
-    <t>https://www.arista.com/en/company/sustainability</t>
-  </si>
-  <si>
-    <t>Arrow Electronics</t>
-  </si>
-  <si>
-    <t>https://www.arrow.com/</t>
-  </si>
-  <si>
-    <t>https://www.arrow.com/en/life</t>
-  </si>
-  <si>
-    <t>Arthur J. Gallagher</t>
-  </si>
-  <si>
-    <t>https://www.ajg.com/</t>
-  </si>
-  <si>
-    <t>https://www.ajg.com/us/about-us/inclusion-diversity/</t>
-  </si>
-  <si>
-    <t>Asbury Automotive Group</t>
-  </si>
-  <si>
-    <t>https://www.asburyauto.com/</t>
-  </si>
-  <si>
-    <t>https://socialresponsibility.asburyauto.com/people</t>
-  </si>
-  <si>
-    <t>Ascena Retail Group</t>
-  </si>
-  <si>
-    <t>https://www.ascenaretail.com/</t>
-  </si>
-  <si>
-    <t>https://www.ascenaretail.com/our-culture/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Assurant</t>
-  </si>
-  <si>
-    <t>https://www.assurant.com/</t>
-  </si>
-  <si>
-    <t>https://socialresponsibility.assurant.com/our-story/corporate-responsibility/default.aspx</t>
-  </si>
-  <si>
-    <t>AT&amp;T</t>
-  </si>
-  <si>
-    <t>https://www.att.com/</t>
-  </si>
-  <si>
-    <t>https://about.att.com/pages/diversity</t>
-  </si>
-  <si>
-    <t>Atmos Energy</t>
-  </si>
-  <si>
-    <t>https://www.atmosenergy.com/</t>
-  </si>
-  <si>
-    <t>https://www.atmosenergy.com/careers/atmospirit-culture</t>
-  </si>
-  <si>
-    <t>Auto-Owners Insurance</t>
-  </si>
-  <si>
-    <t>https://www.auto-owners.com/</t>
-  </si>
-  <si>
-    <t>Autodesk</t>
-  </si>
-  <si>
-    <t>https://www.autodesk.com/</t>
-  </si>
-  <si>
-    <t>https://www.autodesk.com/company/diversity-and-belonging</t>
-  </si>
-  <si>
-    <t>Autoliv</t>
-  </si>
-  <si>
-    <t>https://www.autoliv.com/</t>
-  </si>
-  <si>
-    <t>https://www.autoliv.com/sustainability/commit-our-employees</t>
-  </si>
-  <si>
-    <t>Automatic Data Processing</t>
-  </si>
-  <si>
-    <t>https://www.adp.com/</t>
-  </si>
-  <si>
-    <t>https://sustainability.adp.com/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>AutoNation</t>
-  </si>
-  <si>
-    <t>https://www.autonation.com/</t>
-  </si>
-  <si>
-    <t>https://investors.autonation.com/governance/corporate-social-responsibility/default.aspx</t>
-  </si>
-  <si>
-    <t>AutoZone</t>
-  </si>
-  <si>
-    <t>https://www.autozone.com/</t>
-  </si>
-  <si>
-    <t>https://careers.autozone.com/diversity</t>
-  </si>
-  <si>
-    <t>AvalonBay Communities</t>
-  </si>
-  <si>
-    <t>https://www.avaloncommunities.com/</t>
-  </si>
-  <si>
-    <t>https://www.avaloncommunities.com/about-us/corporate-responsibility</t>
-  </si>
-  <si>
-    <t>Avantor</t>
-  </si>
-  <si>
-    <t>https://www.avantorsciences.com/</t>
-  </si>
-  <si>
-    <t>https://www.avantorsciences.com/pages/en/enriching-our-culture</t>
-  </si>
-  <si>
-    <t>Avery Dennison</t>
-  </si>
-  <si>
-    <t>https://www.averydennison.com/</t>
-  </si>
-  <si>
-    <t>https://www.averydennison.com/en/home/about-us/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>Avis Budget Group</t>
-  </si>
-  <si>
-    <t>https://www.avisbudgetgroup.com/</t>
-  </si>
-  <si>
-    <t>https://avisbudgetgroup.com/csr/</t>
-  </si>
-  <si>
-    <t>Avnet</t>
-  </si>
-  <si>
-    <t>https://www.avnet.com/</t>
-  </si>
-  <si>
-    <t>https://www.avnet.com/wps/portal/us/about-avnet/careers/culture-diversity/</t>
-  </si>
-  <si>
-    <t>Bain</t>
-  </si>
-  <si>
-    <t>https://www.bain.com/</t>
-  </si>
-  <si>
-    <t>https://www.bain.com/about/diversity-equity-inclusion/</t>
-  </si>
-  <si>
-    <t>Baker Hughes</t>
-  </si>
-  <si>
-    <t>https://www.bakerhughes.com/</t>
-  </si>
-  <si>
-    <t>https://www.bakerhughes.com/company/corporate-responsibility/people/inclusion-and-diversity</t>
-  </si>
-  <si>
-    <t>Ball</t>
-  </si>
-  <si>
-    <t>https://www.ball.com/</t>
-  </si>
-  <si>
-    <t>https://www.ball.com/na/about-ball/careers/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Bank of America</t>
-  </si>
-  <si>
-    <t>https://www.bankofamerica.com/</t>
-  </si>
-  <si>
-    <t>https://about.bankofamerica.com/en-us/what-guides-us/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>Bank of New York Mellon</t>
-  </si>
-  <si>
-    <t>https://www.bnymellon.com/</t>
-  </si>
-  <si>
-    <t>https://www.bnymellon.com/us/en/about-us/diversity-inclusion.html</t>
-  </si>
-  <si>
-    <t>Baxter International</t>
-  </si>
-  <si>
-    <t>https://www.baxter.com/</t>
-  </si>
-  <si>
-    <t>https://www.baxter.com/careers/inclusion-diversity</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>https://www.bd.com/</t>
-  </si>
-  <si>
-    <t>https://www.bd.com/en-us/company/careers/inclusion-and-diversity</t>
-  </si>
-  <si>
-    <t>Beacon Roofing Supply</t>
-  </si>
-  <si>
-    <t>https://www.becn.com/</t>
-  </si>
-  <si>
-    <t>https://www.becn.com/corporate-responsibility</t>
-  </si>
-  <si>
-    <t>Bed Bath &amp; Beyond</t>
-  </si>
-  <si>
-    <t>https://www.bedbathandbeyond.com/</t>
-  </si>
-  <si>
-    <t>https://www.bedbathandbeyond.com/store/static/bringinghomeeverywhere</t>
-  </si>
-  <si>
-    <t>Berkshire Hathaway</t>
-  </si>
-  <si>
-    <t>https://www.berkshirehathaway.com/</t>
-  </si>
-  <si>
-    <t>https://www.berkshirehathaway.com/sustainability/sustainability.html</t>
-  </si>
-  <si>
-    <t>Berry Global Group</t>
-  </si>
-  <si>
-    <t>https://www.berryglobal.com/</t>
-  </si>
-  <si>
-    <t>https://www.berryglobal.com/sustainability/social</t>
-  </si>
-  <si>
-    <t>Best Buy</t>
-  </si>
-  <si>
-    <t>https://www.bestbuy.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.bestbuy.com/diversity-and-inclusion/</t>
-  </si>
-  <si>
-    <t>Bio-Rad Laboratories</t>
-  </si>
-  <si>
-    <t>https://www.bio-rad.com/</t>
-  </si>
-  <si>
-    <t>https://www.bio-rad.com/en-us/corporate/community-involvement?ID=MR8IUCKG4</t>
-  </si>
-  <si>
-    <t>Biogen</t>
-  </si>
-  <si>
-    <t>https://www.biogen.com/</t>
-  </si>
-  <si>
-    <t>https://www.biogen.com/en_us/diversity-inclusion.html</t>
-  </si>
-  <si>
-    <t>BJ's Wholesale Club</t>
-  </si>
-  <si>
-    <t>https://www.bjs.com/</t>
-  </si>
-  <si>
-    <t>https://investors.bjs.com/sustainability/team-members/default.aspx</t>
-  </si>
-  <si>
-    <t>BlackRock</t>
-  </si>
-  <si>
-    <t>https://www.blackrock.com/</t>
-  </si>
-  <si>
-    <t>https://careers.blackrock.com/life-at-blackrock/inclusion-and-diversity</t>
-  </si>
-  <si>
-    <t>Blackstone Group</t>
-  </si>
-  <si>
-    <t>https://www.blackstone.com/</t>
-  </si>
-  <si>
-    <t>https://www.blackstone.com/careers/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Boeing</t>
-  </si>
-  <si>
-    <t>https://www.boeing.com/</t>
-  </si>
-  <si>
-    <t>https://www.boeing.com/principles/diversity-and-inclusion/index.page</t>
-  </si>
-  <si>
-    <t>Booking Holdings</t>
-  </si>
-  <si>
-    <t>https://www.bookingholdings.com/</t>
-  </si>
-  <si>
-    <t>https://www.bookingholdings.com/corporate-responsibility/</t>
-  </si>
-  <si>
-    <t>Booz Allen Hamiliton</t>
-  </si>
-  <si>
-    <t>https://www.boozallen.com/</t>
-  </si>
-  <si>
-    <t>https://www.boozallen.com/about/diversity-equity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>BorgWarner</t>
-  </si>
-  <si>
-    <t>https://www.borgwarner.com/</t>
-  </si>
-  <si>
-    <t>https://www.borgwarner.com/careers/who-we-are/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Boston Properties</t>
-  </si>
-  <si>
-    <t>https://www.bostonproperties.com/</t>
-  </si>
-  <si>
-    <t>http://www.bostonproperties.com/pages/careers/diversity</t>
-  </si>
-  <si>
-    <t>Boston Scientific</t>
-  </si>
-  <si>
-    <t>https://www.bostonscientific.com/</t>
-  </si>
-  <si>
-    <t>https://www.bostonscientific.com/en-US/careers/working-here/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>Brighthouse Financial</t>
-  </si>
-  <si>
-    <t>https://www.brighthousefinancial.com/</t>
-  </si>
-  <si>
-    <t>Bristol-Myers Squibb</t>
-  </si>
-  <si>
-    <t>https://www.bms.com/</t>
-  </si>
-  <si>
-    <t>https://www.bms.com/about-us/global-diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>Broadcom</t>
-  </si>
-  <si>
-    <t>https://www.broadcom.com/</t>
-  </si>
-  <si>
-    <t>https://www.broadcom.com/company/citizenship/corporate-culture</t>
-  </si>
-  <si>
-    <t>Broadridge Financial Solutions</t>
-  </si>
-  <si>
-    <t>https://www.broadridge.com/</t>
-  </si>
-  <si>
-    <t>https://www.broadridge.com/ca/about/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Brown-Forman</t>
-  </si>
-  <si>
-    <t>https://www.brown-forman.com/</t>
-  </si>
-  <si>
-    <t>https://www.brown-forman.com/diversity/</t>
-  </si>
-  <si>
-    <t>Builders FirstSource</t>
-  </si>
-  <si>
-    <t>https://www.bldr.com/</t>
-  </si>
-  <si>
-    <t>Burlington Stores</t>
-  </si>
-  <si>
-    <t>https://www.burlington.com/</t>
-  </si>
-  <si>
-    <t>https://www.burlingtoninvestors.com/corporate-responsibility/</t>
-  </si>
-  <si>
-    <t>C.H. Robinson Worldwide</t>
-  </si>
-  <si>
-    <t>https://www.chrobinson.com/</t>
-  </si>
-  <si>
-    <t>https://www.chrobinson.com/en-us/about-us/corporate-responsibility/diversity/</t>
-  </si>
-  <si>
-    <t>Cabot Oil &amp; Gas</t>
-  </si>
-  <si>
-    <t>https://www.cabotog.com/</t>
-  </si>
-  <si>
-    <t>https://www.cabotog.com/sustainability/default.aspx</t>
-  </si>
-  <si>
-    <t>Cadence Design Systems</t>
-  </si>
-  <si>
-    <t>https://www.cadence.com/</t>
-  </si>
-  <si>
-    <t>https://www.cadence.com/en_US/home/company/culture/diversity.html</t>
-  </si>
-  <si>
-    <t>Caesars Holdings</t>
-  </si>
-  <si>
-    <t>https://www.caesars.com/</t>
-  </si>
-  <si>
-    <t>https://www.caesars.com/corporate/corporate-social-responsibility/play/diversity-equity-inclusion</t>
-  </si>
-  <si>
-    <t>Calpine</t>
-  </si>
-  <si>
-    <t>https://www.calpine.com/</t>
-  </si>
-  <si>
-    <t>https://www.calpine.com/careers/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Campbell Soup</t>
-  </si>
-  <si>
-    <t>https://www.campbells.com/</t>
-  </si>
-  <si>
-    <t>https://www.campbellsoupcompany.com/category/diversity/</t>
-  </si>
-  <si>
-    <t>Capital One Financial</t>
-  </si>
-  <si>
-    <t>https://www.capitalone.com/</t>
-  </si>
-  <si>
-    <t>https://www.capitalone.com/diversity/</t>
-  </si>
-  <si>
-    <t>Cardinal Health</t>
-  </si>
-  <si>
-    <t>https://www.cardinalhealth.com/</t>
-  </si>
-  <si>
-    <t>https://www.cardinalhealth.com/en/about-us/our-people/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>CarMax</t>
-  </si>
-  <si>
-    <t>https://www.carmax.com/</t>
-  </si>
-  <si>
-    <t>https://www.carmax.com/about-carmax/culture-diversity</t>
-  </si>
-  <si>
-    <t>Carnival</t>
-  </si>
-  <si>
-    <t>https://www.carnival.com/</t>
-  </si>
-  <si>
-    <t>https://www.carnival.com/about-carnival/diversity-and-inclusion.aspx</t>
-  </si>
-  <si>
-    <t>Carrier Global</t>
-  </si>
-  <si>
-    <t>https://www.corporate.carrier.com/</t>
-  </si>
-  <si>
-    <t>https://www.corporate.carrier.com/corporate-responsibility/social-impact/our-employees/</t>
-  </si>
-  <si>
-    <t>Casey's General Stores</t>
-  </si>
-  <si>
-    <t>https://www.caseys.com/</t>
-  </si>
-  <si>
-    <t>https://www.caseys.com/about-us/sustainability</t>
-  </si>
-  <si>
-    <t>Catalent</t>
-  </si>
-  <si>
-    <t>https://www.catalent.com/</t>
-  </si>
-  <si>
-    <t>https://www.catalent.com/about-us/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Caterpillar</t>
-  </si>
-  <si>
-    <t>https://www.caterpillar.com/</t>
-  </si>
-  <si>
-    <t>https://www.caterpillar.com/en/careers/why-caterpillar/diversity-inclusion.html</t>
-  </si>
-  <si>
-    <t>Cboe Global Markets</t>
-  </si>
-  <si>
-    <t>https://www.cboe.com/</t>
-  </si>
-  <si>
-    <t>https://www.cboe.com/about/corporate-social-responsibility/</t>
-  </si>
-  <si>
-    <t>CBRE Group</t>
-  </si>
-  <si>
-    <t>https://www.cbre.us/</t>
-  </si>
-  <si>
-    <t>https://www.cbre.us/about/careers/diversity</t>
-  </si>
-  <si>
-    <t>CDW</t>
-  </si>
-  <si>
-    <t>https://www.cdw.com/</t>
-  </si>
-  <si>
-    <t>https://www.cdw.com/content/cdw/en/about/overview/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>Celanese</t>
-  </si>
-  <si>
-    <t>https://www.celanese.com/</t>
-  </si>
-  <si>
-    <t>https://www.celanese.com/diversity</t>
-  </si>
-  <si>
-    <t>Centene</t>
-  </si>
-  <si>
-    <t>https://www.centene.com/</t>
-  </si>
-  <si>
-    <t>https://www.centene.com/who-we-are/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>CenterPoint Energy</t>
-  </si>
-  <si>
-    <t>https://www.centerpointenergy.com/</t>
-  </si>
-  <si>
-    <t>https://www.centerpointenergy.com/en-us/corporate/about-us/values/diversity</t>
-  </si>
-  <si>
-    <t>Cerner</t>
-  </si>
-  <si>
-    <t>https://www.cerner.com/</t>
-  </si>
-  <si>
-    <t>https://www.cerner.com/about/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>CF Industries Holdings</t>
-  </si>
-  <si>
-    <t>https://www.cfindustries.com/</t>
-  </si>
-  <si>
-    <t>https://www.cfindustries.com/sustainability-at-cf-industries</t>
-  </si>
-  <si>
-    <t>Charles Schwab</t>
-  </si>
-  <si>
-    <t>https://www.schwab.com/</t>
-  </si>
-  <si>
-    <t>https://www.aboutschwab.com/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Charter Communications</t>
-  </si>
-  <si>
-    <t>https://www.spectrum.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.charter.com/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Cheniere Energy</t>
-  </si>
-  <si>
-    <t>https://www.cheniere.com/</t>
-  </si>
-  <si>
-    <t>https://cheniere.com/csr/team/diversity</t>
-  </si>
-  <si>
-    <t>Chesapeake Energy</t>
-  </si>
-  <si>
-    <t>https://www.chk.com/</t>
-  </si>
-  <si>
-    <t>http://www.chk.com/responsibility/our-culture/diversity</t>
-  </si>
-  <si>
-    <t>Chevron</t>
-  </si>
-  <si>
-    <t>https://www.chevron.com/</t>
-  </si>
-  <si>
-    <t>https://www.chevron.com/sustainability/performance/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Chipotle Mexican Grill</t>
-  </si>
-  <si>
-    <t>https://www.chipotle.com/</t>
-  </si>
-  <si>
-    <t>https://www.chipotle.com/about-us/sustainability</t>
-  </si>
-  <si>
-    <t>CHS</t>
-  </si>
-  <si>
-    <t>https://www.chsinc.com/</t>
-  </si>
-  <si>
-    <t>https://www.chs.net/serving-communities/serving-communitiesdiversity/</t>
-  </si>
-  <si>
-    <t>Chubb Limited</t>
-  </si>
-  <si>
-    <t>https://www.chubb.com/</t>
-  </si>
-  <si>
-    <t>https://www.chubb.com/us-en/about-chubb/diversity-inclusion.html</t>
-  </si>
-  <si>
-    <t>Church &amp; Dwight</t>
-  </si>
-  <si>
-    <t>https://www.churchdwight.com/</t>
-  </si>
-  <si>
-    <t>https://careers.churchdwight.com/our-diversity/</t>
-  </si>
-  <si>
-    <t>Cigna</t>
-  </si>
-  <si>
-    <t>https://www.cigna.com/</t>
-  </si>
-  <si>
-    <t>https://www.cigna.com/about-us/corporate-responsibility/report/our-people/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Cincinnati Financial</t>
-  </si>
-  <si>
-    <t>https://www.cinfin.com/</t>
-  </si>
-  <si>
-    <t>https://cincinnatifinancialcorporation.gcs-web.com/sustainability</t>
-  </si>
-  <si>
-    <t>Cintas</t>
-  </si>
-  <si>
-    <t>https://www.cintas.com/</t>
-  </si>
-  <si>
-    <t>https://www.cintascares.com/diversity-and-inclusion/</t>
-  </si>
-  <si>
-    <t>Cisco Systems</t>
-  </si>
-  <si>
-    <t>https://www.cisco.com/</t>
-  </si>
-  <si>
-    <t>https://www.cisco.com/c/en/us/about/inclusion-diversity.html</t>
-  </si>
-  <si>
-    <t>Citigroup</t>
-  </si>
-  <si>
-    <t>https://www.citigroup.com/</t>
-  </si>
-  <si>
-    <t>https://www.citigroup.com/citi/diversity/</t>
-  </si>
-  <si>
-    <t>Citizens Financial Group</t>
-  </si>
-  <si>
-    <t>https://www.citizensbank.com/</t>
-  </si>
-  <si>
-    <t>https://www.citizensbank.com/diversity-equity-and-inclusion/default.aspx</t>
-  </si>
-  <si>
-    <t>Citrix</t>
-  </si>
-  <si>
-    <t>https://www.citrix.com/</t>
-  </si>
-  <si>
-    <t>https://www.citrix.com/about/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Clorox</t>
-  </si>
-  <si>
-    <t>https://www.clorox.com/</t>
-  </si>
-  <si>
-    <t>https://www.thecloroxcompany.com/who-we-are/our-people/inclusion-diversity/</t>
-  </si>
-  <si>
-    <t>CME Group</t>
-  </si>
-  <si>
-    <t>https://www.cmegroup.com/</t>
-  </si>
-  <si>
-    <t>https://www.cmegroup.com/careers/cme-group-diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>CMS Energy</t>
-  </si>
-  <si>
-    <t>https://www.cmsenergy.com/</t>
-  </si>
-  <si>
-    <t>https://www.consumersenergy.com/company/careers/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Coca-Cola</t>
-  </si>
-  <si>
-    <t>https://www.coca-cola.com/</t>
-  </si>
-  <si>
-    <t>https://www.coca-colacompany.com/shared-future/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Cognizant Technology Solutions</t>
-  </si>
-  <si>
-    <t>https://www.cognizant.com/</t>
-  </si>
-  <si>
-    <t>https://www.cognizant.com/about-cognizant/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Colgate-Palmolive</t>
-  </si>
-  <si>
-    <t>https://www.colgatepalmolive.com/</t>
-  </si>
-  <si>
-    <t>https://www.colgatepalmolive.com/en-us/accelerating-change-in-diversity-equity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Comcast</t>
-  </si>
-  <si>
-    <t>https://www.xfinity.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.comcast.com/values/diversity-equity-inclusion</t>
-  </si>
-  <si>
-    <t>Comerica</t>
-  </si>
-  <si>
-    <t>https://www.comerica.com/</t>
-  </si>
-  <si>
-    <t>https://www.comerica.com/diversity</t>
-  </si>
-  <si>
-    <t>Commercial Metals</t>
-  </si>
-  <si>
-    <t>https://www.cmc.com/</t>
-  </si>
-  <si>
-    <t>https://www.cmc.edu/student-imperative/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>CommScope Holding</t>
-  </si>
-  <si>
-    <t>https://www.commscope.com/</t>
-  </si>
-  <si>
-    <t>https://www.commscope.com/corporate-responsibility-and-sustainability/people/</t>
-  </si>
-  <si>
-    <t>Community Health Systems</t>
-  </si>
-  <si>
-    <t>https://www.chs.net/</t>
-  </si>
-  <si>
-    <t>Conagra Brands</t>
-  </si>
-  <si>
-    <t>https://www.conagrabrands.com/</t>
-  </si>
-  <si>
-    <t>https://careers.conagrabrands.com/Diversity</t>
-  </si>
-  <si>
-    <t>Concho Resources</t>
-  </si>
-  <si>
-    <t>https://www.concho.com/</t>
-  </si>
-  <si>
-    <t>https://www.conocophillips.com/about-us/people/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>ConocoPhillips</t>
-  </si>
-  <si>
-    <t>https://www.conocophillips.com/</t>
-  </si>
-  <si>
-    <t>http://www.conocophillips.com/about-us/people/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Consolidated Edison</t>
-  </si>
-  <si>
-    <t>https://www.coned.com/</t>
-  </si>
-  <si>
-    <t>https://www.coned.com/en/about-us/diversity</t>
-  </si>
-  <si>
-    <t>Constellation Brands</t>
-  </si>
-  <si>
-    <t>https://www.cbrands.com/</t>
-  </si>
-  <si>
-    <t>https://www.cbrands.com/responsibility/diversity</t>
-  </si>
-  <si>
-    <t>Copart</t>
-  </si>
-  <si>
-    <t>https://www.copart.com/</t>
-  </si>
-  <si>
-    <t>https://www.copart.com/content/us/en/landing-page/copart-in-the-community</t>
-  </si>
-  <si>
-    <t>Core-Mark Holding</t>
-  </si>
-  <si>
-    <t>https://www.core-mark.com/</t>
-  </si>
-  <si>
-    <t>https://careers.core-mark.com/</t>
-  </si>
-  <si>
-    <t>Corning</t>
-  </si>
-  <si>
-    <t>https://www.corning.com/</t>
-  </si>
-  <si>
-    <t>https://www.corning.com/worldwide/en/sustainability/people/diversity.html</t>
-  </si>
-  <si>
-    <t>Corteva</t>
-  </si>
-  <si>
-    <t>https://www.corteva.com/</t>
-  </si>
-  <si>
-    <t>https://www.corteva.com/who-we-are/our-diversity.html</t>
-  </si>
-  <si>
-    <t>Costco Wholesale</t>
-  </si>
-  <si>
-    <t>https://www.costco.com/</t>
-  </si>
-  <si>
-    <t>https://www.costco.com/sustainability-employees.html</t>
-  </si>
-  <si>
-    <t>Coty</t>
-  </si>
-  <si>
-    <t>https://www.coty.com/</t>
-  </si>
-  <si>
-    <t>https://www.coty.com/sustainability/beauty-of-our-people</t>
-  </si>
-  <si>
-    <t>Crown Castle International</t>
-  </si>
-  <si>
-    <t>https://www.crowncastle.com/</t>
-  </si>
-  <si>
-    <t>https://www.crowncastle.com/investors/corporate-sustainability-reports</t>
-  </si>
-  <si>
-    <t>Crown Holdings</t>
-  </si>
-  <si>
-    <t>https://www.crowncork.com/</t>
-  </si>
-  <si>
-    <t>https://sustainability.crowncork.com/our-people/</t>
-  </si>
-  <si>
-    <t>CSX</t>
-  </si>
-  <si>
-    <t>https://www.csx.com/</t>
-  </si>
-  <si>
-    <t>https://www.csx.com/index.cfm/working-at-csx/learn-more-about-csx/diversity-inclusion-engagement/</t>
-  </si>
-  <si>
-    <t>Cummins</t>
-  </si>
-  <si>
-    <t>https://www.cummins.com/</t>
-  </si>
-  <si>
-    <t>https://www.cummins.com/company/global-impact/diversity</t>
-  </si>
-  <si>
-    <t>CVS Health</t>
-  </si>
-  <si>
-    <t>https://www.cvshealth.com/</t>
-  </si>
-  <si>
-    <t>https://cvshealth.com/about-cvs-health/diversity</t>
-  </si>
-  <si>
-    <t>D.R. Horton</t>
-  </si>
-  <si>
-    <t>https://www.drhorton.com/</t>
-  </si>
-  <si>
-    <t>Dana</t>
-  </si>
-  <si>
-    <t>https://www.dana.com/</t>
-  </si>
-  <si>
-    <t>https://www.dana.com/careers/inclusion/</t>
-  </si>
-  <si>
-    <t>Danaher</t>
-  </si>
-  <si>
-    <t>https://www.danaher.com/</t>
-  </si>
-  <si>
-    <t>http://www.danaher.com/who-we-are/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Darden Restaurants</t>
-  </si>
-  <si>
-    <t>https://www.darden.com/</t>
-  </si>
-  <si>
-    <t>https://www.darden.com/citizenship/people/culture</t>
-  </si>
-  <si>
-    <t>DaVita</t>
-  </si>
-  <si>
-    <t>https://www.davita.com/</t>
-  </si>
-  <si>
-    <t>https://careers.davita.com/diversityandbelonging</t>
-  </si>
-  <si>
-    <t>DCP Midstream</t>
-  </si>
-  <si>
-    <t>https://www.dcpmidstream.com/</t>
-  </si>
-  <si>
-    <t>https://www.dcpmidstream.com/sustainability</t>
-  </si>
-  <si>
-    <t>Dean Foods</t>
-  </si>
-  <si>
-    <t>https://www.deanfoods.com/</t>
-  </si>
-  <si>
-    <t>https://www.deanfoods.com/our-story/corporate-responsibility/social-responsibility/</t>
-  </si>
-  <si>
-    <t>Deere</t>
-  </si>
-  <si>
-    <t>https://www.deere.com/</t>
-  </si>
-  <si>
-    <t>https://www.deere.com/en/our-company/john-deere-careers/why-john-deere/diversity/</t>
-  </si>
-  <si>
-    <t>Delek US Holdings</t>
-  </si>
-  <si>
-    <t>https://www.delekus.com/</t>
-  </si>
-  <si>
-    <t>https://www.delekus.com/social-commitment/</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>https://www.delltechnologies.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.delltechnologies.com/en-us/social-impact/cultivating-inclusion.htm</t>
-  </si>
-  <si>
-    <t>Deloitte</t>
-  </si>
-  <si>
-    <t>https://www.deloitte.com/</t>
-  </si>
-  <si>
-    <t>https://www2.deloitte.com/global/en/pages/about-deloitte/topics/global-diversity-deloitte-is-diversity.html</t>
-  </si>
-  <si>
-    <t>Delta Air Lines</t>
-  </si>
-  <si>
-    <t>https://www.delta.com/</t>
-  </si>
-  <si>
-    <t>https://news.delta.com/category/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Dentsply Sirona</t>
-  </si>
-  <si>
-    <t>https://www.dentsplysirona.com/</t>
-  </si>
-  <si>
-    <t>https://www.dentsplysirona.com/en/about-dentsply-sirona/corporate-social-responsibility.html</t>
-  </si>
-  <si>
-    <t>Devon Energy</t>
-  </si>
-  <si>
-    <t>https://www.devonenergy.com/</t>
-  </si>
-  <si>
-    <t>https://www.devonenergy.com/sustainability/workforce/inclusion-diversity</t>
-  </si>
-  <si>
-    <t>DexCom</t>
-  </si>
-  <si>
-    <t>https://www.dexcom.com/</t>
-  </si>
-  <si>
-    <t>Diamondback Energy</t>
-  </si>
-  <si>
-    <t>https://www.diamondbackenergy.com/</t>
-  </si>
-  <si>
-    <t>https://www.diamondbackenergy.com/about/sustainability</t>
-  </si>
-  <si>
-    <t>Dick's Sporting Goods</t>
-  </si>
-  <si>
-    <t>https://www.dickssportinggoods.com/</t>
-  </si>
-  <si>
-    <t>https://www.dickssportinggoods.jobs/inclusion-and-diversity/</t>
-  </si>
-  <si>
-    <t>Digital Realty Trust</t>
-  </si>
-  <si>
-    <t>https://www.digitalrealty.com/</t>
-  </si>
-  <si>
-    <t>https://www.digitalrealty.com/about/sustainability</t>
-  </si>
-  <si>
-    <t>Dillard's</t>
-  </si>
-  <si>
-    <t>https://www.dillards.com/</t>
-  </si>
-  <si>
-    <t>https://careers.dillards.com/Careers/information/diversity</t>
-  </si>
-  <si>
-    <t>Discover Financial Services</t>
-  </si>
-  <si>
-    <t>https://www.discover.com/</t>
-  </si>
-  <si>
-    <t>https://www.discover.com/company/corporate-responsibility/</t>
-  </si>
-  <si>
-    <t>Discovery</t>
-  </si>
-  <si>
-    <t>https://www.discovery.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.discovery.com/environmental-social-governance/our-people/</t>
-  </si>
-  <si>
-    <t>DISH Network</t>
-  </si>
-  <si>
-    <t>https://www.dish.com/</t>
-  </si>
-  <si>
-    <t>https://careers.dish.com/life/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Dollar General</t>
-  </si>
-  <si>
-    <t>https://www.dollargeneral.com/</t>
-  </si>
-  <si>
-    <t>https://careers.dollargeneral.com/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Dollar Tree</t>
-  </si>
-  <si>
-    <t>https://www.dollartree.com/</t>
-  </si>
-  <si>
-    <t>https://www.dollartreeinfo.com/corporate-governances</t>
-  </si>
-  <si>
-    <t>Dominion Energy</t>
-  </si>
-  <si>
-    <t>https://www.dominionenergy.com/</t>
-  </si>
-  <si>
-    <t>https://sustainability.dominionenergy.com/retaining-talent/diversity-and-inclusion/</t>
-  </si>
-  <si>
-    <t>Domino's Pizza</t>
-  </si>
-  <si>
-    <t>https://www.dominos.com/</t>
-  </si>
-  <si>
-    <t>https://biz.dominos.com/about/diversity/</t>
-  </si>
-  <si>
-    <t>Dover</t>
-  </si>
-  <si>
-    <t>https://www.doversaddlery.com/</t>
-  </si>
-  <si>
-    <t>https://www.doversaddlery.com/horse-power/a/horsepower/</t>
-  </si>
-  <si>
-    <t>Dow</t>
-  </si>
-  <si>
-    <t>https://www.dow.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.dow.com/en-us/about/company/beliefs-and-culture/diversity.html</t>
-  </si>
-  <si>
-    <t>DTE Energy</t>
-  </si>
-  <si>
-    <t>https://www.newlook.dteenergy.com/</t>
-  </si>
-  <si>
-    <t>https://careers.dteenergy.com/content/Diversity-and-Inclusion/?locale=en_US</t>
-  </si>
-  <si>
-    <t>Duke Energy</t>
-  </si>
-  <si>
-    <t>https://www.duke-energy.com/</t>
-  </si>
-  <si>
-    <t>https://www.duke-energy.com/Our-Company/About-Us/Diversity</t>
-  </si>
-  <si>
-    <t>Duke Realty</t>
-  </si>
-  <si>
-    <t>https://www.dukerealty.com/</t>
-  </si>
-  <si>
-    <t>https://www.dukerealty.com/corporate-responsibility/social/</t>
-  </si>
-  <si>
-    <t>DuPont</t>
-  </si>
-  <si>
-    <t>https://www.dupont.com/</t>
-  </si>
-  <si>
-    <t>https://www.dupont.com/careers/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>DXC Technology</t>
-  </si>
-  <si>
-    <t>https://www.dxc.technology/</t>
-  </si>
-  <si>
-    <t>https://www.dxc.technology/about_us/ahp/97733-inclusion_and_diversity</t>
-  </si>
-  <si>
-    <t>Eastman Chemical</t>
-  </si>
-  <si>
-    <t>https://www.eastman.com/</t>
-  </si>
-  <si>
-    <t>https://www.eastman.com/Company/About_Eastman/Pages/Diversity-Inclusion.aspx</t>
-  </si>
-  <si>
-    <t>Eaton</t>
-  </si>
-  <si>
-    <t>https://www.eaton.com/</t>
-  </si>
-  <si>
-    <t>https://www.eaton.com/us/en-us/company/inclusion-diversity.html</t>
-  </si>
-  <si>
-    <t>eBay</t>
-  </si>
-  <si>
-    <t>https://www.ebay.com/</t>
-  </si>
-  <si>
-    <t>https://www.ebayinc.com/company/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Ecolab</t>
-  </si>
-  <si>
-    <t>https://www.ecolab.com/</t>
-  </si>
-  <si>
-    <t>https://www.ecolab.com/about/corporate-responsibility/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Edison International</t>
-  </si>
-  <si>
-    <t>https://www.edison.com/</t>
-  </si>
-  <si>
-    <t>https://energized.edison.com/stories/diversity-equity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Edward Jones (Jones Financial Companies)</t>
-  </si>
-  <si>
-    <t>https://www.edwardjones.com/</t>
-  </si>
-  <si>
-    <t>https://www.edwardjones.com/about/inclusion-diversity-equity-commitments.html</t>
-  </si>
-  <si>
-    <t>Edwards Lifesciences</t>
-  </si>
-  <si>
-    <t>https://www.edwards.com/</t>
-  </si>
-  <si>
-    <t>https://www.edwards.com/diversity</t>
-  </si>
-  <si>
-    <t>Electronic Arts</t>
-  </si>
-  <si>
-    <t>https://www.ea.com/</t>
-  </si>
-  <si>
-    <t>https://www.ea.com/commitments/inclusion-and-diversity</t>
-  </si>
-  <si>
-    <t>Eli Lilly</t>
-  </si>
-  <si>
-    <t>https://www.lilly.com/</t>
-  </si>
-  <si>
-    <t>https://www.lilly.com/operating-responsibly/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>EMCOR Group</t>
-  </si>
-  <si>
-    <t>https://www.emcorgroup.com/</t>
-  </si>
-  <si>
-    <t>https://emcorgroup.com/about-us/sustainability-report</t>
-  </si>
-  <si>
-    <t>Emerson Electric</t>
-  </si>
-  <si>
-    <t>https://www.emerson.com/</t>
-  </si>
-  <si>
-    <t>https://www.emerson.com/en-us/careers/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Energy Transfer</t>
-  </si>
-  <si>
-    <t>https://www.energytransfer.com/</t>
-  </si>
-  <si>
-    <t>https://www.energytransfer.com/corporate-responsibility/</t>
-  </si>
-  <si>
-    <t>EnLink Midstream</t>
-  </si>
-  <si>
-    <t>https://www.enlink.com/</t>
-  </si>
-  <si>
-    <t>https://www.enlink.com/sustainability/</t>
-  </si>
-  <si>
-    <t>Entergy</t>
-  </si>
-  <si>
-    <t>https://www.entergy.com/</t>
-  </si>
-  <si>
-    <t>https://www.entergy.com/about-us/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Enterprise Products Partners</t>
-  </si>
-  <si>
-    <t>https://www.enterpriseproducts.com/</t>
-  </si>
-  <si>
-    <t>https://www.enterpriseproducts.com/careers/diversity</t>
-  </si>
-  <si>
-    <t>EOG Resources</t>
-  </si>
-  <si>
-    <t>https://www.eogresources.com/</t>
-  </si>
-  <si>
-    <t>https://www.eogresources.com/culture</t>
-  </si>
-  <si>
-    <t>Equifax</t>
-  </si>
-  <si>
-    <t>https://www.equifax.com/</t>
-  </si>
-  <si>
-    <t>https://www.equifax.com/about-equifax/inclusion-diversity/</t>
-  </si>
-  <si>
-    <t>Equinix</t>
-  </si>
-  <si>
-    <t>https://www.equinix.com/</t>
-  </si>
-  <si>
-    <t>https://sustainability.equinix.com/social/i-belong/</t>
-  </si>
-  <si>
-    <t>Equitable Holdings</t>
-  </si>
-  <si>
-    <t>https://www.equitableholdings.com/</t>
-  </si>
-  <si>
-    <t>https://equitable.com/about-us/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Equity Residential</t>
-  </si>
-  <si>
-    <t>https://www.equityapartments.com/</t>
-  </si>
-  <si>
-    <t>http://investors.equityapartments.com/Sustainability/Index?KeyGenPage=1073748860</t>
-  </si>
-  <si>
-    <t>Erie Insurance Group</t>
-  </si>
-  <si>
-    <t>https://www.erieinsurance.com/</t>
-  </si>
-  <si>
-    <t>https://www.erieinsurance.com/careers/diversity</t>
-  </si>
-  <si>
-    <t>Ernst &amp; Young</t>
-  </si>
-  <si>
-    <t>https://www.ey.com/</t>
-  </si>
-  <si>
-    <t>https://www.ey.com/en_us/diversity-inclusiveness</t>
-  </si>
-  <si>
-    <t>Essex Property Trust,</t>
-  </si>
-  <si>
-    <t>https://www.essexapartmenthomes.com/</t>
-  </si>
-  <si>
-    <t>http://investors.essexapartmenthomes.com/corporate-information/corporate-profile/default.aspx</t>
-  </si>
-  <si>
-    <t>Estée Lauder</t>
-  </si>
-  <si>
-    <t>https://www.m.esteelauder.com/</t>
-  </si>
-  <si>
-    <t>https://www.elcompanies.com/en/careers/why-work-here/inclusion-and-diversity</t>
-  </si>
-  <si>
-    <t>Etsy</t>
-  </si>
-  <si>
-    <t>https://www.etsy.com/</t>
-  </si>
-  <si>
-    <t>https://blog.etsy.com/news/2020/expanding-our-diversity-inclusion-efforts/</t>
-  </si>
-  <si>
-    <t>Everest Re Group Ltd.</t>
-  </si>
-  <si>
-    <t>https://www.everestre.com/</t>
-  </si>
-  <si>
-    <t>https://www.everestre.com/en/Corporate-Responsibility/Our-People</t>
-  </si>
-  <si>
-    <t>Evergy</t>
-  </si>
-  <si>
-    <t>https://www.evergy.com/</t>
-  </si>
-  <si>
-    <t>https://www.evergy.com/careers/diversity</t>
-  </si>
-  <si>
-    <t>Eversource Energy</t>
-  </si>
-  <si>
-    <t>https://www.eversource.com/</t>
-  </si>
-  <si>
-    <t>https://www.eversource.com/content/general/about/community/supporting-the-community/sustainability-in-action</t>
-  </si>
-  <si>
-    <t>Exelon</t>
-  </si>
-  <si>
-    <t>https://www.exeloncorp.com/</t>
-  </si>
-  <si>
-    <t>https://jobs.exeloncorp.com/pages/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Expedia Group</t>
-  </si>
-  <si>
-    <t>https://www.expediagroup.com/</t>
-  </si>
-  <si>
-    <t>https://www.expediagroup.com/about/diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Expeditors Intl. of Washington</t>
-  </si>
-  <si>
-    <t>https://www.expeditors.com/</t>
-  </si>
-  <si>
-    <t>https://www.expeditors.com/about-us/culture</t>
-  </si>
-  <si>
-    <t>Extra Space Storage</t>
-  </si>
-  <si>
-    <t>https://www.extraspace.com/</t>
-  </si>
-  <si>
-    <t>https://www.extraspace.com/blog/about-extra-space-storage/extra-space-storage-expands-its-commitment-to-diversity-inclusion/</t>
-  </si>
-  <si>
-    <t>Exxon Mobil</t>
-  </si>
-  <si>
-    <t>https://www.corporate.exxonmobil.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.exxonmobil.com/Company/Careers/Global-diversity</t>
-  </si>
-  <si>
-    <t>F5 Networks</t>
-  </si>
-  <si>
-    <t>https://www.f5.com/</t>
-  </si>
-  <si>
-    <t>https://www.f5.com/company/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/</t>
-  </si>
-  <si>
-    <t>https://diversity.fb.com/</t>
-  </si>
-  <si>
-    <t>Fannie Mae</t>
-  </si>
-  <si>
-    <t>https://www.fanniemae.com/</t>
-  </si>
-  <si>
-    <t>https://www.fanniemae.com/about-us/who-we-are/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Farmers Insurance Exchange</t>
-  </si>
-  <si>
-    <t>https://www.farmers.com/</t>
-  </si>
-  <si>
-    <t>https://www.farmers.com/careers/culture-diversity/</t>
-  </si>
-  <si>
-    <t>Fastenal Co</t>
-  </si>
-  <si>
-    <t>https://www.fastenal.com/</t>
-  </si>
-  <si>
-    <t>https://www.fastenal.com/en/517/military,-veterans-and-diversity</t>
-  </si>
-  <si>
-    <t>Federal Realty Investment Trust</t>
-  </si>
-  <si>
-    <t>https://www.federalrealty.com/</t>
-  </si>
-  <si>
-    <t>https://www.federalrealty.com/about/sustainability/</t>
-  </si>
-  <si>
-    <t>FedEx</t>
-  </si>
-  <si>
-    <t>https://www.fedex.com/</t>
-  </si>
-  <si>
-    <t>https://www.fedex.com/en-us/about/diversity-inclusion.html</t>
-  </si>
-  <si>
-    <t>Fidelity National Financial</t>
-  </si>
-  <si>
-    <t>https://www.fnf.com/</t>
-  </si>
-  <si>
-    <t>Fidelity National Information Services</t>
-  </si>
-  <si>
-    <t>https://www.fisglobal.com/</t>
-  </si>
-  <si>
-    <t>https://careers.fisglobal.com/us/en/inclusion-diversity</t>
-  </si>
-  <si>
-    <t>Fifth Third Bancorp</t>
-  </si>
-  <si>
-    <t>https://www.53.com/</t>
-  </si>
-  <si>
-    <t>https://www.53.com/content/fifth-third/en/personal-banking/about/diversity-at-fifth-third.html</t>
-  </si>
-  <si>
-    <t>First American Financial</t>
-  </si>
-  <si>
-    <t>https://www.firstam.com/</t>
-  </si>
-  <si>
-    <t>https://careers.firstam.com/diversity/</t>
-  </si>
-  <si>
-    <t>First Republic Bank</t>
-  </si>
-  <si>
-    <t>https://www.firstrepublic.com/</t>
-  </si>
-  <si>
-    <t>https://www.firstrepublic.com/resource/commitment-to-supporting-equality</t>
-  </si>
-  <si>
-    <t>FirstEnergy</t>
-  </si>
-  <si>
-    <t>https://www.firstenergycorp.com/</t>
-  </si>
-  <si>
-    <t>https://www.firstenergycorp.com/careers/diversity_inclusion.html</t>
-  </si>
-  <si>
-    <t>Fiserv</t>
-  </si>
-  <si>
-    <t>https://www.fiserv.com/</t>
-  </si>
-  <si>
-    <t>https://www.fiserv.com/en/about-fiserv/diversity-inclusion.html</t>
-  </si>
-  <si>
-    <t>FleetCor Technologies</t>
-  </si>
-  <si>
-    <t>https://www.fleetcor.com/</t>
-  </si>
-  <si>
-    <t>FLIR Systems</t>
-  </si>
-  <si>
-    <t>https://www.flir.com/</t>
-  </si>
-  <si>
-    <t>https://www.flir.com/about/hero/</t>
-  </si>
-  <si>
-    <t>Flowserve</t>
-  </si>
-  <si>
-    <t>https://www.flowserve.com/</t>
-  </si>
-  <si>
-    <t>https://www.flowserve.com/en/more/about-company/culture</t>
-  </si>
-  <si>
-    <t>Fluor</t>
-  </si>
-  <si>
-    <t>https://www.fluor.com/</t>
-  </si>
-  <si>
-    <t>https://www.fluor.com/sustainability/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>FM Global</t>
-  </si>
-  <si>
-    <t>https://www.fmglobal.com/</t>
-  </si>
-  <si>
-    <t>https://www.fmglobal.com/careers/diversity</t>
-  </si>
-  <si>
-    <t>FMC</t>
-  </si>
-  <si>
-    <t>https://www.fmc.com/</t>
-  </si>
-  <si>
-    <t>https://www.fmc.com/en/company/diversity-inclusion</t>
-  </si>
-  <si>
-    <t>Foot Locker</t>
-  </si>
-  <si>
-    <t>https://www.footlocker.com/</t>
-  </si>
-  <si>
-    <t>https://investors.footlocker-inc.com/esg/opportunity</t>
-  </si>
-  <si>
-    <t>Ford Motor</t>
-  </si>
-  <si>
-    <t>https://www.ford.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.ford.com/careers/inclusive-hiring/diversity.html</t>
-  </si>
-  <si>
-    <t>Fortinet</t>
-  </si>
-  <si>
-    <t>https://www.fortinet.com/</t>
-  </si>
-  <si>
-    <t>https://www.fortinet.com/corporate/about-us/corporate-social-responsibility</t>
-  </si>
-  <si>
-    <t>Fortive</t>
-  </si>
-  <si>
-    <t>https://www.fortive.com/</t>
-  </si>
-  <si>
-    <t>https://fortive.com/inclusion-diversity</t>
-  </si>
-  <si>
-    <t>Fortune Brands Home &amp; Security</t>
-  </si>
-  <si>
-    <t>https://www.fbhs.com/</t>
-  </si>
-  <si>
-    <t>https://www.fbhs.com/global-citizenship/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>https://www.foxnews.com/</t>
-  </si>
-  <si>
-    <t>https://foxcareers.com/LifeAtFox/DiversityandInclusion</t>
-  </si>
-  <si>
-    <t>Franklin Resources</t>
-  </si>
-  <si>
-    <t>https://www.franklinresources.com/</t>
-  </si>
-  <si>
-    <t>https://www.franklinresources.com/resources/diversity-and-inclusion</t>
-  </si>
-  <si>
-    <t>Freddie Mac</t>
-  </si>
-  <si>
-    <t>https://www.freddiemac.com/</t>
-  </si>
-  <si>
-    <t>http://www.freddiemac.com/about/people/</t>
-  </si>
-  <si>
-    <t>Freeport-McMoRan</t>
-  </si>
-  <si>
-    <t>https://www.fcx.com/</t>
-  </si>
-  <si>
-    <t>https://fcx.com/sustainability/people/diversity</t>
-  </si>
-  <si>
-    <t>Frontier Communications</t>
-  </si>
-  <si>
-    <t>https://www.frontier.com/</t>
-  </si>
-  <si>
-    <t>https://frontier.com/corporate/responsibility/home</t>
-  </si>
-  <si>
-    <t>GameStop</t>
-  </si>
-  <si>
-    <t>https://www.gamestop.com/</t>
-  </si>
-  <si>
-    <t>https://careers.gamestop.com/en-US/page/culture</t>
-  </si>
-  <si>
-    <t>Gap</t>
-  </si>
-  <si>
-    <t>https://www.gap.com/</t>
-  </si>
-  <si>
-    <t>https://www.gapinc.com/en-us/values/equality-belonging</t>
-  </si>
-  <si>
-    <t>Garmin Ltd.</t>
-  </si>
-  <si>
-    <t>https://www.garmin.com/</t>
-  </si>
-  <si>
-    <t>https://careers-us.garmin.com/us/en/diversity</t>
-  </si>
-  <si>
-    <t>Gartner</t>
-  </si>
-  <si>
-    <t>https://www.gartner.com/</t>
-  </si>
-  <si>
-    <t>https://jobs.gartner.com/inclusion</t>
-  </si>
-  <si>
-    <t>General Dynamics</t>
-  </si>
-  <si>
-    <t>https://www.gd.com/</t>
-  </si>
-  <si>
-    <t>https://www.gd.com/careers/diversity</t>
-  </si>
-  <si>
-    <t>General Electric</t>
-  </si>
-  <si>
-    <t>https://www.ge.com/</t>
-  </si>
-  <si>
-    <t>https://jobs.gecareers.com/global/en/diversity-at-ge</t>
-  </si>
-  <si>
-    <t>General Mills</t>
-  </si>
-  <si>
-    <t>https://www.generalmills.com/</t>
-  </si>
-  <si>
-    <t>https://www.generalmills.com/en/Responsibility/Global%20Inclusion</t>
-  </si>
-  <si>
-    <t>General Motors</t>
-  </si>
-  <si>
-    <t>https://www.gm.com/</t>
-  </si>
-  <si>
-    <t>https://www.gm.com/our-stories/culture/gm-builds-winning-culture-with-diversity.html</t>
-  </si>
-  <si>
-    <t>Genuine Parts</t>
-  </si>
-  <si>
-    <t>https://www.genpt.com/</t>
-  </si>
-  <si>
-    <t>https://jobs.genpt.com/why-choose-gpc/diversity_banner/</t>
-  </si>
-  <si>
-    <t>Genworth Financial</t>
-  </si>
-  <si>
-    <t>https://www.genworth.com/</t>
-  </si>
-  <si>
-    <t>https://www.genworth.com/about-us/building-careers/diversity-and-inclusion.html</t>
-  </si>
-  <si>
-    <t>Gilead Sciences</t>
-  </si>
-  <si>
-    <t>https://www.gilead.com/</t>
-  </si>
-  <si>
-    <t>https://www.gilead.com/careers/inclusion-and-diversity</t>
-  </si>
-  <si>
-    <t>Global Partners</t>
-  </si>
-  <si>
-    <t>https://www.globalp.com/</t>
-  </si>
-  <si>
-    <t>https://www.globalp.com/about/esg/</t>
-  </si>
-  <si>
-    <t>Global Payments</t>
-  </si>
-  <si>
-    <t>https://www.globalpaymentsinc.com/</t>
-  </si>
-  <si>
-    <t>https://investors.globalpaymentsinc.com/Global-Responsibility/default.aspx</t>
-  </si>
-  <si>
-    <t>Globe Life</t>
-  </si>
-  <si>
-    <t>https://www.home.globelifeinsurance.com/</t>
-  </si>
-  <si>
-    <t>https://careers.globelifeinsurance.com/your-life</t>
-  </si>
-  <si>
-    <t>Goldman Sachs Group</t>
-  </si>
-  <si>
-    <t>https://www.goldmansachs.com/</t>
-  </si>
-  <si>
-    <t>https://www.goldmansachs.com/our-firm/people-and-culture/</t>
-  </si>
-  <si>
-    <t>Goodyear Tire &amp; Rubber</t>
-  </si>
-  <si>
-    <t>https://www.corporate.goodyear.com/</t>
-  </si>
-  <si>
-    <t>https://corporate.goodyear.com/en-US/responsibility/inspiring-culture/diversity-inclusion.html</t>
   </si>
   <si>
     <t>Grainger (W.W.)</t>
@@ -6661,7 +6661,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -6755,10 +6755,6 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6794,7 +6790,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6857,9 +6853,6 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -7991,14 +7984,14 @@
       <c r="O34" s="8"/>
     </row>
     <row r="35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="9">
-        <v>11.0</v>
+      <c r="B35" s="5">
+        <v>327.0</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>105</v>
@@ -8022,10 +8015,10 @@
         <v>107</v>
       </c>
       <c r="B36" s="5">
-        <v>327.0</v>
+        <v>167.0</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>108</v>
@@ -8048,8 +8041,8 @@
       <c r="A37" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="5">
-        <v>167.0</v>
+      <c r="B37" s="9">
+        <v>2.0</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>6</v>
@@ -8075,9 +8068,7 @@
       <c r="A38" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="9">
-        <v>2.0</v>
-      </c>
+      <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
@@ -8099,18 +8090,20 @@
       <c r="O38" s="8"/>
     </row>
     <row r="39">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="5">
+        <v>448.0</v>
+      </c>
       <c r="C39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>117</v>
+        <v>22</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -8125,19 +8118,19 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="5">
+        <v>488.0</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="B40" s="5">
-        <v>448.0</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -8151,11 +8144,11 @@
       <c r="O40" s="8"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="5">
-        <v>488.0</v>
+      <c r="B41" s="9">
+        <v>70.0</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
@@ -8178,16 +8171,16 @@
       <c r="O41" s="8"/>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="9">
-        <v>70.0</v>
+      <c r="B42" s="5">
+        <v>460.0</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>124</v>
       </c>
       <c r="E42" s="7" t="s">
@@ -8209,10 +8202,10 @@
         <v>126</v>
       </c>
       <c r="B43" s="5">
-        <v>460.0</v>
+        <v>204.0</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>127</v>
@@ -8232,11 +8225,11 @@
       <c r="O43" s="8"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="5">
-        <v>204.0</v>
+      <c r="B44" s="9">
+        <v>67.0</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
@@ -8259,14 +8252,14 @@
       <c r="O44" s="8"/>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B45" s="9">
-        <v>67.0</v>
+      <c r="B45" s="5">
+        <v>254.0</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>133</v>
@@ -8290,12 +8283,12 @@
         <v>135</v>
       </c>
       <c r="B46" s="5">
-        <v>254.0</v>
+        <v>383.0</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>136</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -8313,16 +8306,16 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="5">
-        <v>383.0</v>
+      <c r="B47" s="9">
+        <v>66.0</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="6" t="s">
         <v>139</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -8340,11 +8333,11 @@
       <c r="O47" s="8"/>
     </row>
     <row r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B48" s="9">
-        <v>66.0</v>
+      <c r="B48" s="5">
+        <v>414.0</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>6</v>
@@ -8367,16 +8360,14 @@
       <c r="O48" s="8"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="5">
-        <v>414.0</v>
-      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D49" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -8394,14 +8385,16 @@
       <c r="O49" s="8"/>
     </row>
     <row r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="5">
+        <v>245.0</v>
+      </c>
       <c r="C50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -8419,14 +8412,14 @@
       <c r="O50" s="8"/>
     </row>
     <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="5">
-        <v>245.0</v>
+      <c r="B51" s="9">
+        <v>10.0</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>151</v>
@@ -8449,9 +8442,7 @@
       <c r="A52" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="9">
-        <v>10.0</v>
-      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="5" t="s">
         <v>6</v>
       </c>
@@ -8473,10 +8464,12 @@
       <c r="O52" s="8"/>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="5"/>
+      <c r="B53" s="5">
+        <v>135.0</v>
+      </c>
       <c r="C53" s="5" t="s">
         <v>6</v>
       </c>
@@ -8502,7 +8495,7 @@
         <v>159</v>
       </c>
       <c r="B54" s="5">
-        <v>135.0</v>
+        <v>386.0</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>6</v>
@@ -8529,12 +8522,12 @@
         <v>162</v>
       </c>
       <c r="B55" s="5">
-        <v>386.0</v>
+        <v>487.0</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D55" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -8556,12 +8549,12 @@
         <v>165</v>
       </c>
       <c r="B56" s="5">
-        <v>487.0</v>
+        <v>390.0</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>166</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -8583,7 +8576,7 @@
         <v>168</v>
       </c>
       <c r="B57" s="5">
-        <v>390.0</v>
+        <v>359.0</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>22</v>
@@ -8606,14 +8599,12 @@
       <c r="O57" s="8"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B58" s="5">
-        <v>359.0</v>
-      </c>
+      <c r="B58" s="5"/>
       <c r="C58" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>172</v>
@@ -8633,10 +8624,12 @@
       <c r="O58" s="8"/>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="5"/>
+      <c r="B59" s="9">
+        <v>29.0</v>
+      </c>
       <c r="C59" s="5" t="s">
         <v>6</v>
       </c>
@@ -8661,9 +8654,7 @@
       <c r="A60" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="9">
-        <v>29.0</v>
-      </c>
+      <c r="B60" s="5"/>
       <c r="C60" s="5" t="s">
         <v>6</v>
       </c>
@@ -8685,10 +8676,12 @@
       <c r="O60" s="8"/>
     </row>
     <row r="61">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B61" s="5"/>
+      <c r="B61" s="5">
+        <v>465.0</v>
+      </c>
       <c r="C61" s="5" t="s">
         <v>6</v>
       </c>
@@ -8710,11 +8703,11 @@
       <c r="O61" s="8"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B62" s="5">
-        <v>465.0</v>
+      <c r="B62" s="9">
+        <v>4.0</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>6</v>
@@ -8737,11 +8730,11 @@
       <c r="O62" s="8"/>
     </row>
     <row r="63">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B63" s="9">
-        <v>4.0</v>
+      <c r="B63" s="5">
+        <v>218.0</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>6</v>
@@ -8764,12 +8757,10 @@
       <c r="O63" s="8"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="5">
-        <v>218.0</v>
-      </c>
+      <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
         <v>6</v>
       </c>
@@ -8791,12 +8782,14 @@
       <c r="O64" s="8"/>
     </row>
     <row r="65">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B65" s="5"/>
+      <c r="B65" s="5">
+        <v>200.0</v>
+      </c>
       <c r="C65" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>193</v>
@@ -8816,19 +8809,19 @@
       <c r="O65" s="8"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="B66" s="5">
-        <v>200.0</v>
+      <c r="B66" s="9">
+        <v>54.0</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="13" t="s">
         <v>197</v>
       </c>
       <c r="F66" s="8"/>
@@ -8846,16 +8839,14 @@
       <c r="A67" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B67" s="9">
-        <v>54.0</v>
-      </c>
+      <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="7" t="s">
         <v>200</v>
       </c>
       <c r="F67" s="8"/>
@@ -8870,12 +8861,14 @@
       <c r="O67" s="8"/>
     </row>
     <row r="68">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B68" s="5"/>
+      <c r="B68" s="5">
+        <v>110.0</v>
+      </c>
       <c r="C68" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>202</v>
@@ -8899,10 +8892,10 @@
         <v>204</v>
       </c>
       <c r="B69" s="5">
-        <v>110.0</v>
+        <v>429.0</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>205</v>
@@ -8926,10 +8919,10 @@
         <v>207</v>
       </c>
       <c r="B70" s="5">
-        <v>429.0</v>
+        <v>428.0</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>208</v>
@@ -8953,7 +8946,7 @@
         <v>210</v>
       </c>
       <c r="B71" s="5">
-        <v>428.0</v>
+        <v>473.0</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>22</v>
@@ -8980,10 +8973,10 @@
         <v>213</v>
       </c>
       <c r="B72" s="5">
-        <v>473.0</v>
+        <v>315.0</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>214</v>
@@ -9003,11 +8996,11 @@
       <c r="O72" s="8"/>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="B73" s="5">
-        <v>315.0</v>
+      <c r="B73" s="9">
+        <v>9.0</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>6</v>
@@ -9033,9 +9026,7 @@
       <c r="A74" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B74" s="9">
-        <v>9.0</v>
-      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="5" t="s">
         <v>6</v>
       </c>
@@ -9057,18 +9048,20 @@
       <c r="O74" s="8"/>
     </row>
     <row r="75">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B75" s="5"/>
+      <c r="B75" s="5">
+        <v>320.0</v>
+      </c>
       <c r="C75" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>223</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
@@ -9082,20 +9075,18 @@
       <c r="O75" s="8"/>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B76" s="5">
-        <v>320.0</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D76" s="11" t="s">
+      <c r="E76" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -9109,12 +9100,14 @@
       <c r="O76" s="8"/>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B77" s="5"/>
+      <c r="B77" s="5">
+        <v>369.0</v>
+      </c>
       <c r="C77" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>228</v>
@@ -9138,10 +9131,10 @@
         <v>230</v>
       </c>
       <c r="B78" s="5">
-        <v>369.0</v>
+        <v>227.0</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>231</v>
@@ -9165,10 +9158,10 @@
         <v>233</v>
       </c>
       <c r="B79" s="5">
-        <v>227.0</v>
+        <v>154.0</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>234</v>
@@ -9192,10 +9185,10 @@
         <v>236</v>
       </c>
       <c r="B80" s="5">
-        <v>154.0</v>
+        <v>268.0</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>237</v>
@@ -9215,12 +9208,10 @@
       <c r="O80" s="8"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B81" s="5">
-        <v>268.0</v>
-      </c>
+      <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
         <v>6</v>
       </c>
@@ -9242,12 +9233,14 @@
       <c r="O81" s="8"/>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B82" s="5"/>
+      <c r="B82" s="5">
+        <v>484.0</v>
+      </c>
       <c r="C82" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>243</v>
@@ -9271,10 +9264,10 @@
         <v>245</v>
       </c>
       <c r="B83" s="5">
-        <v>484.0</v>
+        <v>435.0</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>246</v>
@@ -9298,10 +9291,10 @@
         <v>248</v>
       </c>
       <c r="B84" s="5">
-        <v>435.0</v>
+        <v>345.0</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>249</v>
@@ -9325,7 +9318,7 @@
         <v>251</v>
       </c>
       <c r="B85" s="5">
-        <v>345.0</v>
+        <v>169.0</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>22</v>
@@ -9348,16 +9341,14 @@
       <c r="O85" s="8"/>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="5">
-        <v>169.0</v>
-      </c>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="15" t="s">
         <v>255</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -9375,14 +9366,16 @@
       <c r="O86" s="8"/>
     </row>
     <row r="87">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D87" s="15" t="s">
+      <c r="B87" s="5">
+        <v>129.0</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="11" t="s">
         <v>258</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -9404,12 +9397,12 @@
         <v>260</v>
       </c>
       <c r="B88" s="5">
-        <v>129.0</v>
+        <v>279.0</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="16" t="s">
         <v>261</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -9427,16 +9420,16 @@
       <c r="O88" s="8"/>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="5">
-        <v>279.0</v>
+      <c r="B89" s="9">
+        <v>25.0</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="11" t="s">
         <v>264</v>
       </c>
       <c r="E89" s="7" t="s">
@@ -9454,11 +9447,11 @@
       <c r="O89" s="8"/>
     </row>
     <row r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B90" s="9">
-        <v>25.0</v>
+      <c r="B90" s="5">
+        <v>159.0</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>6</v>
@@ -9485,7 +9478,7 @@
         <v>269</v>
       </c>
       <c r="B91" s="5">
-        <v>159.0</v>
+        <v>282.0</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>6</v>
@@ -9512,7 +9505,7 @@
         <v>272</v>
       </c>
       <c r="B92" s="5">
-        <v>282.0</v>
+        <v>187.0</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>6</v>
@@ -9539,10 +9532,10 @@
         <v>275</v>
       </c>
       <c r="B93" s="5">
-        <v>187.0</v>
+        <v>434.0</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>276</v>
@@ -9566,7 +9559,7 @@
         <v>278</v>
       </c>
       <c r="B94" s="5">
-        <v>434.0</v>
+        <v>265.0</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>22</v>
@@ -9589,19 +9582,19 @@
       <c r="O94" s="8"/>
     </row>
     <row r="95">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B95" s="5">
-        <v>265.0</v>
+      <c r="B95" s="9">
+        <v>6.0</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E95" s="13" t="s">
         <v>283</v>
       </c>
       <c r="F95" s="8"/>
@@ -9616,19 +9609,19 @@
       <c r="O95" s="8"/>
     </row>
     <row r="96">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="9">
-        <v>6.0</v>
+      <c r="B96" s="5">
+        <v>358.0</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E96" s="13" t="s">
+      <c r="E96" s="7" t="s">
         <v>286</v>
       </c>
       <c r="F96" s="8"/>
@@ -9643,14 +9636,14 @@
       <c r="O96" s="8"/>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B97" s="5">
-        <v>358.0</v>
+      <c r="B97" s="9">
+        <v>75.0</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>288</v>
@@ -9673,9 +9666,7 @@
       <c r="A98" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="B98" s="9">
-        <v>75.0</v>
-      </c>
+      <c r="B98" s="5"/>
       <c r="C98" s="5" t="s">
         <v>6</v>
       </c>
@@ -9697,10 +9688,12 @@
       <c r="O98" s="8"/>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="5"/>
+      <c r="B99" s="5">
+        <v>223.0</v>
+      </c>
       <c r="C99" s="5" t="s">
         <v>6</v>
       </c>
@@ -9726,10 +9719,10 @@
         <v>296</v>
       </c>
       <c r="B100" s="5">
-        <v>223.0</v>
+        <v>243.0</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>297</v>
@@ -9753,10 +9746,10 @@
         <v>299</v>
       </c>
       <c r="B101" s="5">
-        <v>243.0</v>
+        <v>219.0</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>300</v>
@@ -9780,10 +9773,10 @@
         <v>302</v>
       </c>
       <c r="B102" s="5">
-        <v>219.0</v>
+        <v>420.0</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>303</v>
@@ -9803,16 +9796,16 @@
       <c r="O102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B103" s="5">
-        <v>420.0</v>
+      <c r="B103" s="9">
+        <v>40.0</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D103" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="16" t="s">
         <v>306</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -9830,16 +9823,16 @@
       <c r="O103" s="8"/>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B104" s="9">
-        <v>40.0</v>
+      <c r="B104" s="5">
+        <v>210.0</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="16" t="s">
+      <c r="D104" s="11" t="s">
         <v>309</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -9857,14 +9850,14 @@
       <c r="O104" s="8"/>
     </row>
     <row r="105">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="14" t="s">
         <v>311</v>
       </c>
       <c r="B105" s="5">
-        <v>210.0</v>
+        <v>450.0</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>312</v>
@@ -9884,14 +9877,14 @@
       <c r="O105" s="8"/>
     </row>
     <row r="106">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="5" t="s">
         <v>314</v>
       </c>
       <c r="B106" s="5">
-        <v>450.0</v>
+        <v>312.0</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>315</v>
@@ -9911,12 +9904,10 @@
       <c r="O106" s="8"/>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B107" s="5">
-        <v>312.0</v>
-      </c>
+      <c r="B107" s="5"/>
       <c r="C107" s="5" t="s">
         <v>6</v>
       </c>
@@ -9938,10 +9929,12 @@
       <c r="O107" s="8"/>
     </row>
     <row r="108">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B108" s="5"/>
+      <c r="B108" s="5">
+        <v>296.0</v>
+      </c>
       <c r="C108" s="5" t="s">
         <v>6</v>
       </c>
@@ -9967,16 +9960,16 @@
         <v>323</v>
       </c>
       <c r="B109" s="5">
-        <v>296.0</v>
+        <v>458.0</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>324</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
@@ -9991,19 +9984,19 @@
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B110" s="5">
+        <v>115.0</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B110" s="5">
-        <v>458.0</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D110" s="11" t="s">
+      <c r="E110" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
@@ -10021,7 +10014,7 @@
         <v>328</v>
       </c>
       <c r="B111" s="5">
-        <v>115.0</v>
+        <v>138.0</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>6</v>
@@ -10044,12 +10037,10 @@
       <c r="O111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B112" s="5">
-        <v>138.0</v>
-      </c>
+      <c r="B112" s="5"/>
       <c r="C112" s="5" t="s">
         <v>6</v>
       </c>
@@ -10096,18 +10087,20 @@
       <c r="O113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B114" s="5"/>
+      <c r="B114" s="5">
+        <v>425.0</v>
+      </c>
       <c r="C114" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>338</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>339</v>
+        <v>22</v>
       </c>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
@@ -10122,19 +10115,19 @@
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B115" s="5">
-        <v>425.0</v>
+        <v>424.0</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>22</v>
       </c>
       <c r="D115" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E115" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
@@ -10152,10 +10145,10 @@
         <v>342</v>
       </c>
       <c r="B116" s="5">
-        <v>424.0</v>
+        <v>208.0</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>343</v>
@@ -10175,12 +10168,10 @@
       <c r="O116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B117" s="5">
-        <v>208.0</v>
-      </c>
+      <c r="B117" s="5"/>
       <c r="C117" s="5" t="s">
         <v>6</v>
       </c>
@@ -10227,12 +10218,14 @@
       <c r="O118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B119" s="5"/>
+      <c r="B119" s="5">
+        <v>363.0</v>
+      </c>
       <c r="C119" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>352</v>
@@ -10256,7 +10249,7 @@
         <v>354</v>
       </c>
       <c r="B120" s="5">
-        <v>363.0</v>
+        <v>319.0</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>22</v>
@@ -10283,10 +10276,10 @@
         <v>357</v>
       </c>
       <c r="B121" s="5">
-        <v>319.0</v>
+        <v>323.0</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D121" s="11" t="s">
         <v>358</v>
@@ -10306,11 +10299,11 @@
       <c r="O121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B122" s="5">
-        <v>323.0</v>
+      <c r="B122" s="9">
+        <v>97.0</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>6</v>
@@ -10337,7 +10330,7 @@
         <v>363</v>
       </c>
       <c r="B123" s="9">
-        <v>97.0</v>
+        <v>16.0</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>6</v>
@@ -10360,11 +10353,11 @@
       <c r="O123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B124" s="9">
-        <v>16.0</v>
+      <c r="B124" s="5">
+        <v>173.0</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>6</v>
@@ -10387,12 +10380,10 @@
       <c r="O124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B125" s="5">
-        <v>173.0</v>
-      </c>
+      <c r="B125" s="5"/>
       <c r="C125" s="5" t="s">
         <v>6</v>
       </c>
@@ -10439,12 +10430,14 @@
       <c r="O126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B127" s="5"/>
+      <c r="B127" s="5">
+        <v>378.0</v>
+      </c>
       <c r="C127" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D127" s="11" t="s">
         <v>376</v>
@@ -10464,14 +10457,12 @@
       <c r="O127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B128" s="5">
-        <v>378.0</v>
-      </c>
+      <c r="B128" s="5"/>
       <c r="C128" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D128" s="11" t="s">
         <v>379</v>
@@ -10494,7 +10485,9 @@
       <c r="A129" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="B129" s="5"/>
+      <c r="B129" s="9">
+        <v>62.0</v>
+      </c>
       <c r="C129" s="5" t="s">
         <v>6</v>
       </c>
@@ -10519,9 +10512,7 @@
       <c r="A130" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B130" s="9">
-        <v>62.0</v>
-      </c>
+      <c r="B130" s="5"/>
       <c r="C130" s="5" t="s">
         <v>6</v>
       </c>
@@ -10543,10 +10534,12 @@
       <c r="O130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B131" s="5"/>
+      <c r="B131" s="5">
+        <v>128.0</v>
+      </c>
       <c r="C131" s="5" t="s">
         <v>6</v>
       </c>
@@ -10572,7 +10565,7 @@
         <v>390</v>
       </c>
       <c r="B132" s="5">
-        <v>128.0</v>
+        <v>178.0</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>6</v>
@@ -10599,7 +10592,7 @@
         <v>393</v>
       </c>
       <c r="B133" s="5">
-        <v>178.0</v>
+        <v>470.0</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>6</v>
@@ -10622,11 +10615,11 @@
       <c r="O133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="B134" s="5">
-        <v>470.0</v>
+      <c r="B134" s="9">
+        <v>42.0</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>6</v>
@@ -10649,11 +10642,11 @@
       <c r="O134" s="8"/>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B135" s="9">
-        <v>42.0</v>
+      <c r="B135" s="5">
+        <v>260.0</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>6</v>
@@ -10680,7 +10673,7 @@
         <v>402</v>
       </c>
       <c r="B136" s="5">
-        <v>260.0</v>
+        <v>498.0</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>6</v>
@@ -10703,12 +10696,10 @@
       <c r="O136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="B137" s="5">
-        <v>498.0</v>
-      </c>
+      <c r="B137" s="5"/>
       <c r="C137" s="5" t="s">
         <v>6</v>
       </c>
@@ -10730,10 +10721,12 @@
       <c r="O137" s="8"/>
     </row>
     <row r="138">
-      <c r="A138" s="9" t="s">
+      <c r="A138" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B138" s="5"/>
+      <c r="B138" s="5">
+        <v>271.0</v>
+      </c>
       <c r="C138" s="5" t="s">
         <v>6</v>
       </c>
@@ -10755,11 +10748,11 @@
       <c r="O138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B139" s="5">
-        <v>271.0</v>
+      <c r="B139" s="9">
+        <v>71.0</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>6</v>
@@ -10782,14 +10775,14 @@
       <c r="O139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="9" t="s">
+      <c r="A140" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B140" s="9">
-        <v>71.0</v>
+      <c r="B140" s="5">
+        <v>329.0</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D140" s="11" t="s">
         <v>415</v>
@@ -10813,7 +10806,7 @@
         <v>417</v>
       </c>
       <c r="B141" s="5">
-        <v>329.0</v>
+        <v>373.0</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>22</v>
@@ -10836,14 +10829,14 @@
       <c r="O141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="B142" s="5">
-        <v>373.0</v>
+      <c r="B142" s="9">
+        <v>15.0</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D142" s="11" t="s">
         <v>421</v>
@@ -10866,9 +10859,7 @@
       <c r="A143" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B143" s="9">
-        <v>15.0</v>
-      </c>
+      <c r="B143" s="5"/>
       <c r="C143" s="5" t="s">
         <v>6</v>
       </c>
@@ -10890,14 +10881,16 @@
       <c r="O143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="9" t="s">
+      <c r="A144" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B144" s="5"/>
+      <c r="B144" s="5">
+        <v>105.0</v>
+      </c>
       <c r="C144" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144" s="6" t="s">
         <v>427</v>
       </c>
       <c r="E144" s="7" t="s">
@@ -10915,16 +10908,14 @@
       <c r="O144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="B145" s="5">
-        <v>105.0</v>
-      </c>
+      <c r="B145" s="5"/>
       <c r="C145" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D145" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="10" t="s">
         <v>430</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -10949,7 +10940,7 @@
       <c r="C146" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="11" t="s">
         <v>433</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -10970,7 +10961,9 @@
       <c r="A147" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B147" s="5"/>
+      <c r="B147" s="9">
+        <v>13.0</v>
+      </c>
       <c r="C147" s="5" t="s">
         <v>6</v>
       </c>
@@ -10992,11 +10985,11 @@
       <c r="O147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="9" t="s">
+      <c r="A148" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B148" s="9">
-        <v>13.0</v>
+      <c r="B148" s="5">
+        <v>400.0</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>6</v>
@@ -11023,7 +11016,7 @@
         <v>441</v>
       </c>
       <c r="B149" s="5">
-        <v>400.0</v>
+        <v>441.0</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>6</v>
@@ -11046,11 +11039,11 @@
       <c r="O149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="B150" s="5">
-        <v>441.0</v>
+      <c r="B150" s="9">
+        <v>63.0</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>6</v>
@@ -11077,7 +11070,7 @@
         <v>447</v>
       </c>
       <c r="B151" s="9">
-        <v>63.0</v>
+        <v>31.0</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>6</v>
@@ -11100,11 +11093,11 @@
       <c r="O151" s="8"/>
     </row>
     <row r="152">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B152" s="9">
-        <v>31.0</v>
+      <c r="B152" s="5">
+        <v>395.0</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>6</v>
@@ -11130,9 +11123,7 @@
       <c r="A153" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="B153" s="5">
-        <v>395.0</v>
-      </c>
+      <c r="B153" s="5"/>
       <c r="C153" s="5" t="s">
         <v>6</v>
       </c>
@@ -11157,7 +11148,9 @@
       <c r="A154" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B154" s="5"/>
+      <c r="B154" s="5">
+        <v>474.0</v>
+      </c>
       <c r="C154" s="5" t="s">
         <v>6</v>
       </c>
@@ -11179,12 +11172,10 @@
       <c r="O154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="B155" s="5">
-        <v>474.0</v>
-      </c>
+      <c r="B155" s="5"/>
       <c r="C155" s="5" t="s">
         <v>6</v>
       </c>
@@ -11206,10 +11197,12 @@
       <c r="O155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="9" t="s">
+      <c r="A156" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B156" s="5"/>
+      <c r="B156" s="5">
+        <v>443.0</v>
+      </c>
       <c r="C156" s="5" t="s">
         <v>6</v>
       </c>
@@ -11231,11 +11224,11 @@
       <c r="O156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="B157" s="5">
-        <v>443.0</v>
+      <c r="B157" s="9">
+        <v>88.0</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>6</v>
@@ -11258,11 +11251,11 @@
       <c r="O157" s="8"/>
     </row>
     <row r="158">
-      <c r="A158" s="9" t="s">
+      <c r="A158" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B158" s="9">
-        <v>88.0</v>
+      <c r="B158" s="5">
+        <v>194.0</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>6</v>
@@ -11289,7 +11282,7 @@
         <v>471</v>
       </c>
       <c r="B159" s="5">
-        <v>194.0</v>
+        <v>203.0</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>6</v>
@@ -11312,11 +11305,11 @@
       <c r="O159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="B160" s="5">
-        <v>203.0</v>
+      <c r="B160" s="9">
+        <v>28.0</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>6</v>
@@ -11342,9 +11335,7 @@
       <c r="A161" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B161" s="9">
-        <v>28.0</v>
-      </c>
+      <c r="B161" s="5"/>
       <c r="C161" s="5" t="s">
         <v>6</v>
       </c>
@@ -11366,12 +11357,14 @@
       <c r="O161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B162" s="5"/>
+      <c r="B162" s="5">
+        <v>491.0</v>
+      </c>
       <c r="C162" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D162" s="11" t="s">
         <v>481</v>
@@ -11395,7 +11388,7 @@
         <v>483</v>
       </c>
       <c r="B163" s="5">
-        <v>491.0</v>
+        <v>381.0</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>22</v>
@@ -11422,7 +11415,7 @@
         <v>486</v>
       </c>
       <c r="B164" s="5">
-        <v>381.0</v>
+        <v>241.0</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>22</v>
@@ -11431,7 +11424,7 @@
         <v>487</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>488</v>
+        <v>428</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
@@ -11446,19 +11439,19 @@
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B165" s="5">
+        <v>334.0</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="B165" s="5">
-        <v>241.0</v>
-      </c>
-      <c r="C165" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D165" s="11" t="s">
+      <c r="E165" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
@@ -11472,12 +11465,10 @@
       <c r="O165" s="8"/>
     </row>
     <row r="166">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="B166" s="5">
-        <v>334.0</v>
-      </c>
+      <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
         <v>6</v>
       </c>
@@ -11502,7 +11493,9 @@
       <c r="A167" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="B167" s="5"/>
+      <c r="B167" s="9">
+        <v>93.0</v>
+      </c>
       <c r="C167" s="5" t="s">
         <v>6</v>
       </c>
@@ -11524,11 +11517,11 @@
       <c r="O167" s="8"/>
     </row>
     <row r="168">
-      <c r="A168" s="9" t="s">
+      <c r="A168" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="B168" s="9">
-        <v>93.0</v>
+      <c r="B168" s="5">
+        <v>256.0</v>
       </c>
       <c r="C168" s="5" t="s">
         <v>6</v>
@@ -11555,7 +11548,7 @@
         <v>500</v>
       </c>
       <c r="B169" s="5">
-        <v>256.0</v>
+        <v>392.0</v>
       </c>
       <c r="C169" s="5" t="s">
         <v>6</v>
@@ -11578,12 +11571,10 @@
       <c r="O169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B170" s="5">
-        <v>392.0</v>
-      </c>
+      <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
         <v>6</v>
       </c>
@@ -11605,12 +11596,14 @@
       <c r="O170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="9" t="s">
+      <c r="A171" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B171" s="5"/>
+      <c r="B171" s="5">
+        <v>240.0</v>
+      </c>
       <c r="C171" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D171" s="11" t="s">
         <v>507</v>
@@ -11634,10 +11627,10 @@
         <v>509</v>
       </c>
       <c r="B172" s="5">
-        <v>240.0</v>
+        <v>277.0</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D172" s="11" t="s">
         <v>510</v>
@@ -11661,7 +11654,7 @@
         <v>512</v>
       </c>
       <c r="B173" s="5">
-        <v>277.0</v>
+        <v>234.0</v>
       </c>
       <c r="C173" s="5" t="s">
         <v>6</v>
@@ -11684,11 +11677,11 @@
       <c r="O173" s="8"/>
     </row>
     <row r="174">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="B174" s="5">
-        <v>234.0</v>
+      <c r="B174" s="9">
+        <v>14.0</v>
       </c>
       <c r="C174" s="5" t="s">
         <v>6</v>
@@ -11711,14 +11704,14 @@
       <c r="O174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="9" t="s">
+      <c r="A175" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B175" s="9">
-        <v>14.0</v>
+      <c r="B175" s="5">
+        <v>366.0</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D175" s="11" t="s">
         <v>519</v>
@@ -11742,10 +11735,10 @@
         <v>521</v>
       </c>
       <c r="B176" s="5">
-        <v>366.0</v>
+        <v>496.0</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>522</v>
@@ -11769,10 +11762,10 @@
         <v>524</v>
       </c>
       <c r="B177" s="5">
-        <v>496.0</v>
+        <v>272.0</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>525</v>
@@ -11796,10 +11789,10 @@
         <v>527</v>
       </c>
       <c r="B178" s="5">
-        <v>272.0</v>
+        <v>267.0</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>528</v>
@@ -11823,7 +11816,7 @@
         <v>530</v>
       </c>
       <c r="B179" s="5">
-        <v>267.0</v>
+        <v>132.0</v>
       </c>
       <c r="C179" s="5" t="s">
         <v>6</v>
@@ -11846,11 +11839,11 @@
       <c r="O179" s="8"/>
     </row>
     <row r="180">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="B180" s="5">
-        <v>132.0</v>
+      <c r="B180" s="9">
+        <v>5.0</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>6</v>
@@ -11873,11 +11866,11 @@
       <c r="O180" s="8"/>
     </row>
     <row r="181">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B181" s="9">
-        <v>5.0</v>
+      <c r="B181" s="5">
+        <v>183.0</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>6</v>
@@ -11886,7 +11879,7 @@
         <v>537</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>538</v>
+        <v>22</v>
       </c>
       <c r="F181" s="8"/>
       <c r="G181" s="8"/>
@@ -11901,19 +11894,19 @@
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B182" s="5">
+        <v>367.0</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D182" s="11" t="s">
         <v>539</v>
       </c>
-      <c r="B182" s="5">
-        <v>183.0</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="11" t="s">
+      <c r="E182" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="E182" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F182" s="8"/>
       <c r="G182" s="8"/>
@@ -11931,10 +11924,10 @@
         <v>541</v>
       </c>
       <c r="B183" s="5">
-        <v>367.0</v>
+        <v>161.0</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D183" s="11" t="s">
         <v>542</v>
@@ -11958,7 +11951,7 @@
         <v>544</v>
       </c>
       <c r="B184" s="5">
-        <v>161.0</v>
+        <v>372.0</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>6</v>
@@ -11985,7 +11978,7 @@
         <v>547</v>
       </c>
       <c r="B185" s="5">
-        <v>372.0</v>
+        <v>230.0</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>6</v>
@@ -12012,10 +12005,10 @@
         <v>550</v>
       </c>
       <c r="B186" s="5">
-        <v>230.0</v>
+        <v>413.0</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D186" s="11" t="s">
         <v>551</v>
@@ -12039,7 +12032,7 @@
         <v>553</v>
       </c>
       <c r="B187" s="5">
-        <v>413.0</v>
+        <v>421.0</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>22</v>
@@ -12062,14 +12055,14 @@
       <c r="O187" s="8"/>
     </row>
     <row r="188">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="B188" s="5">
-        <v>421.0</v>
+      <c r="B188" s="9">
+        <v>84.0</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D188" s="11" t="s">
         <v>557</v>
@@ -12089,14 +12082,14 @@
       <c r="O188" s="8"/>
     </row>
     <row r="189">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B189" s="9">
-        <v>84.0</v>
+      <c r="B189" s="5">
+        <v>342.0</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D189" s="11" t="s">
         <v>560</v>
@@ -12119,8 +12112,8 @@
       <c r="A190" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B190" s="5">
-        <v>342.0</v>
+      <c r="B190" s="9">
+        <v>34.0</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>22</v>
@@ -12143,16 +12136,14 @@
       <c r="O190" s="8"/>
     </row>
     <row r="191">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="B191" s="9">
-        <v>34.0</v>
-      </c>
-      <c r="C191" s="5" t="s">
+      <c r="B191" s="14"/>
+      <c r="C191" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D191" s="11" t="s">
+      <c r="D191" s="15" t="s">
         <v>566</v>
       </c>
       <c r="E191" s="7" t="s">
@@ -12170,14 +12161,16 @@
       <c r="O191" s="8"/>
     </row>
     <row r="192">
-      <c r="A192" s="14" t="s">
+      <c r="A192" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="B192" s="14"/>
-      <c r="C192" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D192" s="15" t="s">
+      <c r="B192" s="9">
+        <v>68.0</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="11" t="s">
         <v>569</v>
       </c>
       <c r="E192" s="7" t="s">
@@ -12198,9 +12191,7 @@
       <c r="A193" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="B193" s="9">
-        <v>68.0</v>
-      </c>
+      <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
         <v>6</v>
       </c>
@@ -12222,10 +12213,12 @@
       <c r="O193" s="8"/>
     </row>
     <row r="194">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="B194" s="5"/>
+      <c r="B194" s="5">
+        <v>419.0</v>
+      </c>
       <c r="C194" s="5" t="s">
         <v>6</v>
       </c>
@@ -12247,12 +12240,10 @@
       <c r="O194" s="8"/>
     </row>
     <row r="195">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="B195" s="5">
-        <v>419.0</v>
-      </c>
+      <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
         <v>6</v>
       </c>
@@ -12260,7 +12251,7 @@
         <v>578</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>579</v>
+        <v>22</v>
       </c>
       <c r="F195" s="8"/>
       <c r="G195" s="8"/>
@@ -12275,17 +12266,17 @@
     </row>
     <row r="196">
       <c r="A196" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D196" s="11" t="s">
+      <c r="D196" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="E196" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F196" s="8"/>
       <c r="G196" s="8"/>
@@ -12299,14 +12290,16 @@
       <c r="O196" s="8"/>
     </row>
     <row r="197">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="B197" s="5"/>
+      <c r="B197" s="5">
+        <v>362.0</v>
+      </c>
       <c r="C197" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D197" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D197" s="11" t="s">
         <v>583</v>
       </c>
       <c r="E197" s="7" t="s">
@@ -12324,14 +12317,12 @@
       <c r="O197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="B198" s="5">
-        <v>362.0</v>
-      </c>
+      <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D198" s="11" t="s">
         <v>586</v>
@@ -12351,12 +12342,14 @@
       <c r="O198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="B199" s="5"/>
+      <c r="B199" s="5">
+        <v>468.0</v>
+      </c>
       <c r="C199" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D199" s="11" t="s">
         <v>589</v>
@@ -12380,10 +12373,10 @@
         <v>591</v>
       </c>
       <c r="B200" s="5">
-        <v>468.0</v>
+        <v>231.0</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D200" s="11" t="s">
         <v>592</v>
@@ -12407,7 +12400,7 @@
         <v>594</v>
       </c>
       <c r="B201" s="5">
-        <v>231.0</v>
+        <v>287.0</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>6</v>
@@ -12434,7 +12427,7 @@
         <v>597</v>
       </c>
       <c r="B202" s="5">
-        <v>287.0</v>
+        <v>251.0</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>6</v>
@@ -12461,7 +12454,7 @@
         <v>600</v>
       </c>
       <c r="B203" s="5">
-        <v>251.0</v>
+        <v>112.0</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>6</v>
@@ -12488,7 +12481,7 @@
         <v>603</v>
       </c>
       <c r="B204" s="5">
-        <v>112.0</v>
+        <v>131.0</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>6</v>
@@ -12515,7 +12508,7 @@
         <v>606</v>
       </c>
       <c r="B205" s="5">
-        <v>131.0</v>
+        <v>197.0</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>6</v>
@@ -12538,12 +12531,10 @@
       <c r="O205" s="8"/>
     </row>
     <row r="206">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="B206" s="5">
-        <v>197.0</v>
-      </c>
+      <c r="B206" s="5"/>
       <c r="C206" s="5" t="s">
         <v>6</v>
       </c>
@@ -12565,10 +12556,12 @@
       <c r="O206" s="8"/>
     </row>
     <row r="207">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="B207" s="5"/>
+      <c r="B207" s="5">
+        <v>433.0</v>
+      </c>
       <c r="C207" s="5" t="s">
         <v>6</v>
       </c>
@@ -12590,16 +12583,16 @@
       <c r="O207" s="8"/>
     </row>
     <row r="208">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B208" s="5">
-        <v>433.0</v>
+      <c r="B208" s="9">
+        <v>78.0</v>
       </c>
       <c r="C208" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D208" s="11" t="s">
+      <c r="D208" s="10" t="s">
         <v>616</v>
       </c>
       <c r="E208" s="7" t="s">
@@ -12617,16 +12610,16 @@
       <c r="O208" s="8"/>
     </row>
     <row r="209">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="B209" s="9">
-        <v>78.0</v>
+      <c r="B209" s="5">
+        <v>253.0</v>
       </c>
       <c r="C209" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D209" s="10" t="s">
+      <c r="D209" s="11" t="s">
         <v>619</v>
       </c>
       <c r="E209" s="7" t="s">
@@ -12648,7 +12641,7 @@
         <v>621</v>
       </c>
       <c r="B210" s="5">
-        <v>253.0</v>
+        <v>123.0</v>
       </c>
       <c r="C210" s="5" t="s">
         <v>6</v>
@@ -12671,12 +12664,10 @@
       <c r="O210" s="8"/>
     </row>
     <row r="211">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="B211" s="5">
-        <v>123.0</v>
-      </c>
+      <c r="B211" s="5"/>
       <c r="C211" s="5" t="s">
         <v>6</v>
       </c>
@@ -12698,10 +12689,12 @@
       <c r="O211" s="8"/>
     </row>
     <row r="212">
-      <c r="A212" s="9" t="s">
+      <c r="A212" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B212" s="5"/>
+      <c r="B212" s="5">
+        <v>152.0</v>
+      </c>
       <c r="C212" s="5" t="s">
         <v>6</v>
       </c>
@@ -12727,7 +12720,7 @@
         <v>630</v>
       </c>
       <c r="B213" s="5">
-        <v>152.0</v>
+        <v>155.0</v>
       </c>
       <c r="C213" s="5" t="s">
         <v>6</v>
@@ -12754,7 +12747,7 @@
         <v>633</v>
       </c>
       <c r="B214" s="5">
-        <v>155.0</v>
+        <v>343.0</v>
       </c>
       <c r="C214" s="5" t="s">
         <v>6</v>
@@ -12777,12 +12770,10 @@
       <c r="O214" s="8"/>
     </row>
     <row r="215">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="B215" s="5">
-        <v>343.0</v>
-      </c>
+      <c r="B215" s="5"/>
       <c r="C215" s="5" t="s">
         <v>6</v>
       </c>
@@ -12804,10 +12795,12 @@
       <c r="O215" s="8"/>
     </row>
     <row r="216">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B216" s="5"/>
+      <c r="B216" s="5">
+        <v>295.0</v>
+      </c>
       <c r="C216" s="5" t="s">
         <v>6</v>
       </c>
@@ -12833,7 +12826,7 @@
         <v>642</v>
       </c>
       <c r="B217" s="5">
-        <v>295.0</v>
+        <v>213.0</v>
       </c>
       <c r="C217" s="5" t="s">
         <v>6</v>
@@ -12860,7 +12853,7 @@
         <v>645</v>
       </c>
       <c r="B218" s="5">
-        <v>213.0</v>
+        <v>259.0</v>
       </c>
       <c r="C218" s="5" t="s">
         <v>6</v>
@@ -12887,10 +12880,10 @@
         <v>648</v>
       </c>
       <c r="B219" s="5">
-        <v>259.0</v>
+        <v>336.0</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D219" s="11" t="s">
         <v>649</v>
@@ -12910,14 +12903,12 @@
       <c r="O219" s="8"/>
     </row>
     <row r="220">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="B220" s="5">
-        <v>336.0</v>
-      </c>
+      <c r="B220" s="5"/>
       <c r="C220" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D220" s="11" t="s">
         <v>652</v>
@@ -12962,12 +12953,14 @@
       <c r="O221" s="8"/>
     </row>
     <row r="222">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B222" s="5"/>
+      <c r="B222" s="5">
+        <v>145.0</v>
+      </c>
       <c r="C222" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D222" s="11" t="s">
         <v>658</v>
@@ -12991,7 +12984,7 @@
         <v>660</v>
       </c>
       <c r="B223" s="5">
-        <v>145.0</v>
+        <v>344.0</v>
       </c>
       <c r="C223" s="5" t="s">
         <v>22</v>
@@ -13018,10 +13011,10 @@
         <v>663</v>
       </c>
       <c r="B224" s="5">
-        <v>344.0</v>
+        <v>176.0</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D224" s="11" t="s">
         <v>664</v>
@@ -13041,19 +13034,19 @@
       <c r="O224" s="8"/>
     </row>
     <row r="225">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="9" t="s">
         <v>666</v>
       </c>
-      <c r="B225" s="5">
-        <v>176.0</v>
+      <c r="B225" s="9">
+        <v>59.0</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D225" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="E225" s="7" t="s">
+      <c r="E225" s="13" t="s">
         <v>668</v>
       </c>
       <c r="F225" s="8"/>
@@ -13068,11 +13061,11 @@
       <c r="O225" s="8"/>
     </row>
     <row r="226">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B226" s="9">
-        <v>59.0</v>
+      <c r="B226" s="5">
+        <v>483.0</v>
       </c>
       <c r="C226" s="5" t="s">
         <v>22</v>
@@ -13080,7 +13073,7 @@
       <c r="D226" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="E226" s="13" t="s">
+      <c r="E226" s="7" t="s">
         <v>671</v>
       </c>
       <c r="F226" s="8"/>
@@ -13099,10 +13092,10 @@
         <v>672</v>
       </c>
       <c r="B227" s="5">
-        <v>483.0</v>
+        <v>293.0</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D227" s="11" t="s">
         <v>673</v>
@@ -13126,10 +13119,10 @@
         <v>675</v>
       </c>
       <c r="B228" s="5">
-        <v>293.0</v>
+        <v>101.0</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D228" s="11" t="s">
         <v>676</v>
@@ -13153,10 +13146,10 @@
         <v>678</v>
       </c>
       <c r="B229" s="5">
-        <v>101.0</v>
+        <v>186.0</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D229" s="11" t="s">
         <v>679</v>
@@ -13176,12 +13169,10 @@
       <c r="O229" s="8"/>
     </row>
     <row r="230">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="9" t="s">
         <v>681</v>
       </c>
-      <c r="B230" s="5">
-        <v>186.0</v>
-      </c>
+      <c r="B230" s="5"/>
       <c r="C230" s="5" t="s">
         <v>6</v>
       </c>
@@ -13228,12 +13219,14 @@
       <c r="O231" s="8"/>
     </row>
     <row r="232">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="B232" s="5"/>
+      <c r="B232" s="5">
+        <v>333.0</v>
+      </c>
       <c r="C232" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D232" s="11" t="s">
         <v>688</v>
@@ -13253,14 +13246,12 @@
       <c r="O232" s="8"/>
     </row>
     <row r="233">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="9" t="s">
         <v>690</v>
       </c>
-      <c r="B233" s="5">
-        <v>333.0</v>
-      </c>
+      <c r="B233" s="5"/>
       <c r="C233" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D233" s="11" t="s">
         <v>691</v>
@@ -13280,12 +13271,14 @@
       <c r="O233" s="8"/>
     </row>
     <row r="234">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B234" s="5"/>
+      <c r="B234" s="5">
+        <v>376.0</v>
+      </c>
       <c r="C234" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D234" s="11" t="s">
         <v>694</v>
@@ -13305,16 +13298,14 @@
       <c r="O234" s="8"/>
     </row>
     <row r="235">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="B235" s="5">
-        <v>376.0</v>
-      </c>
-      <c r="C235" s="5" t="s">
+      <c r="B235" s="14"/>
+      <c r="C235" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D235" s="11" t="s">
+      <c r="D235" s="17" t="s">
         <v>697</v>
       </c>
       <c r="E235" s="7" t="s">
@@ -13332,14 +13323,14 @@
       <c r="O235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="14" t="s">
+      <c r="A236" s="9" t="s">
         <v>699</v>
       </c>
-      <c r="B236" s="14"/>
-      <c r="C236" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236" s="17" t="s">
+      <c r="B236" s="5"/>
+      <c r="C236" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D236" s="11" t="s">
         <v>700</v>
       </c>
       <c r="E236" s="7" t="s">
@@ -13357,10 +13348,12 @@
       <c r="O236" s="8"/>
     </row>
     <row r="237">
-      <c r="A237" s="9" t="s">
+      <c r="A237" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="B237" s="5"/>
+      <c r="B237" s="5">
+        <v>215.0</v>
+      </c>
       <c r="C237" s="5" t="s">
         <v>6</v>
       </c>
@@ -13382,12 +13375,10 @@
       <c r="O237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="9" t="s">
         <v>705</v>
       </c>
-      <c r="B238" s="5">
-        <v>215.0</v>
-      </c>
+      <c r="B238" s="5"/>
       <c r="C238" s="5" t="s">
         <v>6</v>
       </c>
@@ -13459,10 +13450,12 @@
       <c r="O240" s="8"/>
     </row>
     <row r="241">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B241" s="5"/>
+      <c r="B241" s="5">
+        <v>371.0</v>
+      </c>
       <c r="C241" s="5" t="s">
         <v>6</v>
       </c>
@@ -13484,11 +13477,11 @@
       <c r="O241" s="8"/>
     </row>
     <row r="242">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="B242" s="5">
-        <v>371.0</v>
+      <c r="B242" s="9">
+        <v>95.0</v>
       </c>
       <c r="C242" s="5" t="s">
         <v>6</v>
@@ -13511,11 +13504,11 @@
       <c r="O242" s="8"/>
     </row>
     <row r="243">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="B243" s="9">
-        <v>95.0</v>
+      <c r="B243" s="5">
+        <v>263.0</v>
       </c>
       <c r="C243" s="5" t="s">
         <v>6</v>
@@ -13542,7 +13535,7 @@
         <v>723</v>
       </c>
       <c r="B244" s="5">
-        <v>263.0</v>
+        <v>389.0</v>
       </c>
       <c r="C244" s="5" t="s">
         <v>6</v>
@@ -13565,12 +13558,10 @@
       <c r="O244" s="8"/>
     </row>
     <row r="245">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="B245" s="5">
-        <v>389.0</v>
-      </c>
+      <c r="B245" s="5"/>
       <c r="C245" s="5" t="s">
         <v>6</v>
       </c>
@@ -13595,7 +13586,9 @@
       <c r="A246" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="B246" s="5"/>
+      <c r="B246" s="9">
+        <v>3.0</v>
+      </c>
       <c r="C246" s="5" t="s">
         <v>6</v>
       </c>
@@ -13617,12 +13610,10 @@
       <c r="O246" s="8"/>
     </row>
     <row r="247">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B247" s="9">
-        <v>3.0</v>
-      </c>
+      <c r="B247" s="5"/>
       <c r="C247" s="5" t="s">
         <v>6</v>
       </c>
@@ -13644,10 +13635,12 @@
       <c r="O247" s="8"/>
     </row>
     <row r="248">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="9" t="s">
         <v>735</v>
       </c>
-      <c r="B248" s="5"/>
+      <c r="B248" s="9">
+        <v>46.0</v>
+      </c>
       <c r="C248" s="5" t="s">
         <v>6</v>
       </c>
@@ -13673,10 +13666,10 @@
         <v>738</v>
       </c>
       <c r="B249" s="9">
-        <v>46.0</v>
+        <v>24.0</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D249" s="11" t="s">
         <v>739</v>
@@ -13696,11 +13689,11 @@
       <c r="O249" s="8"/>
     </row>
     <row r="250">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="B250" s="9">
-        <v>24.0</v>
+      <c r="B250" s="5">
+        <v>255.0</v>
       </c>
       <c r="C250" s="5" t="s">
         <v>22</v>
@@ -13723,14 +13716,12 @@
       <c r="O250" s="8"/>
     </row>
     <row r="251">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="B251" s="5">
-        <v>255.0</v>
-      </c>
+      <c r="B251" s="5"/>
       <c r="C251" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D251" s="11" t="s">
         <v>745</v>
@@ -13778,7 +13769,9 @@
       <c r="A253" s="9" t="s">
         <v>750</v>
       </c>
-      <c r="B253" s="5"/>
+      <c r="B253" s="9">
+        <v>47.0</v>
+      </c>
       <c r="C253" s="5" t="s">
         <v>6</v>
       </c>
@@ -13800,20 +13793,20 @@
       <c r="O253" s="8"/>
     </row>
     <row r="254">
-      <c r="A254" s="9" t="s">
+      <c r="A254" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="B254" s="9">
-        <v>47.0</v>
+      <c r="B254" s="5">
+        <v>375.0</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D254" s="11" t="s">
         <v>754</v>
       </c>
       <c r="E254" s="7" t="s">
-        <v>755</v>
+        <v>22</v>
       </c>
       <c r="F254" s="8"/>
       <c r="G254" s="8"/>
@@ -13828,19 +13821,19 @@
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B255" s="5">
+        <v>303.0</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="B255" s="5">
-        <v>375.0</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D255" s="11" t="s">
+      <c r="E255" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F255" s="8"/>
       <c r="G255" s="8"/>
@@ -13858,7 +13851,7 @@
         <v>758</v>
       </c>
       <c r="B256" s="5">
-        <v>303.0</v>
+        <v>325.0</v>
       </c>
       <c r="C256" s="5" t="s">
         <v>6</v>
@@ -13885,10 +13878,10 @@
         <v>761</v>
       </c>
       <c r="B257" s="5">
-        <v>325.0</v>
+        <v>476.0</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D257" s="11" t="s">
         <v>762</v>
@@ -13908,14 +13901,12 @@
       <c r="O257" s="8"/>
     </row>
     <row r="258">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="9" t="s">
         <v>764</v>
       </c>
-      <c r="B258" s="5">
-        <v>476.0</v>
-      </c>
+      <c r="B258" s="5"/>
       <c r="C258" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D258" s="11" t="s">
         <v>765</v>
@@ -13935,10 +13926,12 @@
       <c r="O258" s="8"/>
     </row>
     <row r="259">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="B259" s="5"/>
+      <c r="B259" s="5">
+        <v>294.0</v>
+      </c>
       <c r="C259" s="5" t="s">
         <v>6</v>
       </c>
@@ -13964,7 +13957,7 @@
         <v>770</v>
       </c>
       <c r="B260" s="5">
-        <v>294.0</v>
+        <v>311.0</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>6</v>
@@ -13987,12 +13980,10 @@
       <c r="O260" s="8"/>
     </row>
     <row r="261">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="9" t="s">
         <v>773</v>
       </c>
-      <c r="B261" s="5">
-        <v>311.0</v>
-      </c>
+      <c r="B261" s="5"/>
       <c r="C261" s="5" t="s">
         <v>6</v>
       </c>
@@ -14000,7 +13991,7 @@
         <v>774</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>775</v>
+        <v>22</v>
       </c>
       <c r="F261" s="8"/>
       <c r="G261" s="8"/>
@@ -14015,17 +14006,17 @@
     </row>
     <row r="262">
       <c r="A262" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D262" s="11" t="s">
+        <v>776</v>
+      </c>
+      <c r="E262" s="7" t="s">
         <v>777</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="F262" s="8"/>
       <c r="G262" s="8"/>
@@ -14039,7 +14030,7 @@
       <c r="O262" s="8"/>
     </row>
     <row r="263">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="12" t="s">
         <v>778</v>
       </c>
       <c r="B263" s="5"/>
@@ -14064,12 +14055,14 @@
       <c r="O263" s="8"/>
     </row>
     <row r="264">
-      <c r="A264" s="12" t="s">
+      <c r="A264" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B264" s="5"/>
+      <c r="B264" s="5">
+        <v>181.0</v>
+      </c>
       <c r="C264" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D264" s="11" t="s">
         <v>782</v>
@@ -14093,7 +14086,7 @@
         <v>784</v>
       </c>
       <c r="B265" s="5">
-        <v>181.0</v>
+        <v>447.0</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>22</v>
@@ -14116,14 +14109,12 @@
       <c r="O265" s="8"/>
     </row>
     <row r="266">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="12" t="s">
         <v>787</v>
       </c>
-      <c r="B266" s="5">
-        <v>447.0</v>
-      </c>
+      <c r="B266" s="5"/>
       <c r="C266" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D266" s="11" t="s">
         <v>788</v>
@@ -14143,12 +14134,14 @@
       <c r="O266" s="8"/>
     </row>
     <row r="267">
-      <c r="A267" s="12" t="s">
+      <c r="A267" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="B267" s="5"/>
+      <c r="B267" s="5">
+        <v>397.0</v>
+      </c>
       <c r="C267" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D267" s="11" t="s">
         <v>791</v>
@@ -14168,14 +14161,14 @@
       <c r="O267" s="8"/>
     </row>
     <row r="268">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="9" t="s">
         <v>793</v>
       </c>
-      <c r="B268" s="5">
-        <v>397.0</v>
+      <c r="B268" s="9">
+        <v>12.0</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D268" s="11" t="s">
         <v>794</v>
@@ -14198,9 +14191,7 @@
       <c r="A269" s="9" t="s">
         <v>796</v>
       </c>
-      <c r="B269" s="9">
-        <v>12.0</v>
-      </c>
+      <c r="B269" s="5"/>
       <c r="C269" s="5" t="s">
         <v>6</v>
       </c>
@@ -14222,10 +14213,12 @@
       <c r="O269" s="8"/>
     </row>
     <row r="270">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B270" s="5"/>
+      <c r="B270" s="5">
+        <v>422.0</v>
+      </c>
       <c r="C270" s="5" t="s">
         <v>6</v>
       </c>
@@ -14251,7 +14244,7 @@
         <v>802</v>
       </c>
       <c r="B271" s="5">
-        <v>422.0</v>
+        <v>494.0</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>6</v>
@@ -14278,7 +14271,7 @@
         <v>805</v>
       </c>
       <c r="B272" s="5">
-        <v>494.0</v>
+        <v>280.0</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>6</v>
@@ -14305,7 +14298,7 @@
         <v>808</v>
       </c>
       <c r="B273" s="5">
-        <v>280.0</v>
+        <v>493.0</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>6</v>
@@ -14328,14 +14321,14 @@
       <c r="O273" s="8"/>
     </row>
     <row r="274">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="B274" s="5">
-        <v>493.0</v>
+      <c r="B274" s="9">
+        <v>41.0</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D274" s="11" t="s">
         <v>812</v>
@@ -14355,14 +14348,14 @@
       <c r="O274" s="8"/>
     </row>
     <row r="275">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="5" t="s">
         <v>814</v>
       </c>
-      <c r="B275" s="9">
-        <v>41.0</v>
+      <c r="B275" s="5">
+        <v>221.0</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D275" s="11" t="s">
         <v>815</v>
@@ -14386,10 +14379,10 @@
         <v>817</v>
       </c>
       <c r="B276" s="5">
-        <v>221.0</v>
+        <v>393.0</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D276" s="11" t="s">
         <v>818</v>
@@ -14413,7 +14406,7 @@
         <v>820</v>
       </c>
       <c r="B277" s="5">
-        <v>393.0</v>
+        <v>464.0</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>22</v>
@@ -14440,10 +14433,10 @@
         <v>823</v>
       </c>
       <c r="B278" s="5">
-        <v>464.0</v>
+        <v>199.0</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D278" s="11" t="s">
         <v>824</v>
@@ -14463,12 +14456,10 @@
       <c r="O278" s="8"/>
     </row>
     <row r="279">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="B279" s="5">
-        <v>199.0</v>
-      </c>
+      <c r="B279" s="5"/>
       <c r="C279" s="5" t="s">
         <v>6</v>
       </c>
@@ -14518,7 +14509,9 @@
       <c r="A281" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="B281" s="5"/>
+      <c r="B281" s="9">
+        <v>83.0</v>
+      </c>
       <c r="C281" s="5" t="s">
         <v>6</v>
       </c>
@@ -14544,7 +14537,7 @@
         <v>835</v>
       </c>
       <c r="B282" s="9">
-        <v>83.0</v>
+        <v>33.0</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>6</v>
@@ -14567,11 +14560,11 @@
       <c r="O282" s="8"/>
     </row>
     <row r="283">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="B283" s="9">
-        <v>33.0</v>
+      <c r="B283" s="5">
+        <v>192.0</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>6</v>
@@ -14594,11 +14587,11 @@
       <c r="O283" s="8"/>
     </row>
     <row r="284">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="9" t="s">
         <v>841</v>
       </c>
-      <c r="B284" s="5">
-        <v>192.0</v>
+      <c r="B284" s="9">
+        <v>18.0</v>
       </c>
       <c r="C284" s="5" t="s">
         <v>6</v>
@@ -14621,11 +14614,11 @@
       <c r="O284" s="8"/>
     </row>
     <row r="285">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="B285" s="9">
-        <v>18.0</v>
+      <c r="B285" s="5">
+        <v>171.0</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>6</v>
@@ -14652,10 +14645,10 @@
         <v>847</v>
       </c>
       <c r="B286" s="5">
-        <v>171.0</v>
+        <v>364.0</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D286" s="11" t="s">
         <v>848</v>
@@ -14679,10 +14672,10 @@
         <v>850</v>
       </c>
       <c r="B287" s="5">
-        <v>364.0</v>
+        <v>140.0</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D287" s="11" t="s">
         <v>851</v>
@@ -14706,10 +14699,10 @@
         <v>853</v>
       </c>
       <c r="B288" s="5">
-        <v>140.0</v>
+        <v>246.0</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D288" s="11" t="s">
         <v>854</v>
@@ -14729,14 +14722,12 @@
       <c r="O288" s="8"/>
     </row>
     <row r="289">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="9" t="s">
         <v>856</v>
       </c>
-      <c r="B289" s="5">
-        <v>246.0</v>
-      </c>
+      <c r="B289" s="5"/>
       <c r="C289" s="5" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D289" s="11" t="s">
         <v>857</v>
@@ -14784,7 +14775,9 @@
       <c r="A291" s="9" t="s">
         <v>862</v>
       </c>
-      <c r="B291" s="5"/>
+      <c r="B291" s="9">
+        <v>60.0</v>
+      </c>
       <c r="C291" s="5" t="s">
         <v>6</v>
       </c>
@@ -14806,14 +14799,14 @@
       <c r="O291" s="8"/>
     </row>
     <row r="292">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="B292" s="9">
-        <v>60.0</v>
+      <c r="B292" s="5">
+        <v>216.0</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D292" s="11" t="s">
         <v>866</v>
@@ -14836,13 +14829,13 @@
       <c r="A293" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="B293" s="5">
-        <v>216.0</v>
+      <c r="B293" s="9">
+        <v>11.0</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D293" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" s="6" t="s">
         <v>869</v>
       </c>
       <c r="E293" s="7" t="s">
@@ -17350,10 +17343,10 @@
         <v>6</v>
       </c>
       <c r="D388" s="11" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F388" s="8"/>
       <c r="G388" s="8"/>
@@ -30660,6 +30653,7 @@
   <autoFilter ref="$A$1:$E$703">
     <sortState ref="A1:E703">
       <sortCondition ref="A1:A703"/>
+      <sortCondition ref="B1:B703"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -30728,8 +30722,8 @@
     <hyperlink r:id="rId63" ref="D64"/>
     <hyperlink r:id="rId64" ref="D65"/>
     <hyperlink r:id="rId65" ref="D66"/>
-    <hyperlink r:id="rId66" ref="D67"/>
-    <hyperlink r:id="rId67" ref="E67"/>
+    <hyperlink r:id="rId66" ref="E66"/>
+    <hyperlink r:id="rId67" ref="D67"/>
     <hyperlink r:id="rId68" ref="D68"/>
     <hyperlink r:id="rId69" ref="D69"/>
     <hyperlink r:id="rId70" ref="D70"/>
@@ -30758,8 +30752,8 @@
     <hyperlink r:id="rId93" ref="D93"/>
     <hyperlink r:id="rId94" ref="D94"/>
     <hyperlink r:id="rId95" ref="D95"/>
-    <hyperlink r:id="rId96" ref="D96"/>
-    <hyperlink r:id="rId97" ref="E96"/>
+    <hyperlink r:id="rId96" ref="E95"/>
+    <hyperlink r:id="rId97" ref="D96"/>
     <hyperlink r:id="rId98" ref="D97"/>
     <hyperlink r:id="rId99" ref="D98"/>
     <hyperlink r:id="rId100" ref="D99"/>
@@ -30889,8 +30883,8 @@
     <hyperlink r:id="rId224" ref="D223"/>
     <hyperlink r:id="rId225" ref="D224"/>
     <hyperlink r:id="rId226" ref="D225"/>
-    <hyperlink r:id="rId227" ref="D226"/>
-    <hyperlink r:id="rId228" ref="E226"/>
+    <hyperlink r:id="rId227" ref="E225"/>
+    <hyperlink r:id="rId228" ref="D226"/>
     <hyperlink r:id="rId229" ref="D227"/>
     <hyperlink r:id="rId230" ref="D228"/>
     <hyperlink r:id="rId231" ref="D229"/>
@@ -31738,8 +31732,8 @@
       <c r="R12" s="8"/>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="s">
-        <v>104</v>
+      <c r="A13" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="B13" s="5">
         <v>2018.0</v>
@@ -31766,8 +31760,8 @@
       <c r="R13" s="8"/>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>104</v>
+      <c r="A14" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="B14" s="5">
         <v>2017.0</v>
@@ -31794,8 +31788,8 @@
       <c r="R14" s="8"/>
     </row>
     <row r="15">
-      <c r="A15" s="9" t="s">
-        <v>104</v>
+      <c r="A15" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="B15" s="5">
         <v>2016.0</v>
@@ -31822,8 +31816,8 @@
       <c r="R15" s="8"/>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>104</v>
+      <c r="A16" s="5" t="s">
+        <v>868</v>
       </c>
       <c r="B16" s="5">
         <v>2014.0</v>
@@ -31850,8 +31844,8 @@
       <c r="R16" s="8"/>
     </row>
     <row r="17">
-      <c r="A17" s="9" t="s">
-        <v>113</v>
+      <c r="A17" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B17" s="5">
         <v>2016.0</v>
@@ -31878,8 +31872,8 @@
       <c r="R17" s="8"/>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>113</v>
+      <c r="A18" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B18" s="5">
         <v>2015.0</v>
@@ -31906,8 +31900,8 @@
       <c r="R18" s="8"/>
     </row>
     <row r="19">
-      <c r="A19" s="9" t="s">
-        <v>113</v>
+      <c r="A19" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="B19" s="5">
         <v>2014.0</v>
@@ -31935,7 +31929,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B20" s="5">
         <v>2019.0</v>
@@ -31963,7 +31957,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B21" s="5">
         <v>2018.0</v>
@@ -31972,7 +31966,7 @@
         <v>2088</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -31991,7 +31985,7 @@
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B22" s="5">
         <v>2018.0</v>
@@ -32019,7 +32013,7 @@
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B23" s="5">
         <v>2016.0</v>
@@ -32047,7 +32041,7 @@
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B24" s="5">
         <v>2014.0</v>
@@ -32075,7 +32069,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B25" s="5">
         <v>2018.0</v>
@@ -32103,7 +32097,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B26" s="5">
         <v>2017.0</v>
@@ -32131,7 +32125,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B27" s="5">
         <v>2016.0</v>
@@ -32159,7 +32153,7 @@
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B28" s="5">
         <v>2019.0</v>
@@ -32187,7 +32181,7 @@
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B29" s="5">
         <v>2018.0</v>
@@ -32215,7 +32209,7 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B30" s="5">
         <v>2018.0</v>
@@ -32243,7 +32237,7 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B31" s="5">
         <v>2018.0</v>
@@ -32271,7 +32265,7 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B32" s="5">
         <v>2019.0</v>
@@ -32299,7 +32293,7 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B33" s="5">
         <v>2018.0</v>
@@ -32327,7 +32321,7 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B34" s="5">
         <v>2018.0</v>
@@ -32355,7 +32349,7 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B35" s="5">
         <v>2019.0</v>
@@ -32383,7 +32377,7 @@
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B36" s="5">
         <v>2018.0</v>
@@ -32411,7 +32405,7 @@
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B37" s="5">
         <v>2018.0</v>
@@ -32439,7 +32433,7 @@
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B38" s="5">
         <v>2016.0</v>
@@ -32467,7 +32461,7 @@
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B39" s="5">
         <v>2014.0</v>
@@ -32495,7 +32489,7 @@
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B40" s="5">
         <v>2019.0</v>
@@ -32523,7 +32517,7 @@
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B41" s="5">
         <v>2015.0</v>
@@ -32551,7 +32545,7 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B42" s="5">
         <v>2018.0</v>
@@ -32579,7 +32573,7 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B43" s="5">
         <v>2018.0</v>
@@ -32607,7 +32601,7 @@
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B44" s="5">
         <v>2018.0</v>
@@ -32635,7 +32629,7 @@
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B45" s="5">
         <v>2017.0</v>
@@ -32663,7 +32657,7 @@
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B46" s="5">
         <v>2019.0</v>
@@ -32691,7 +32685,7 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B47" s="5">
         <v>2018.0</v>
@@ -32719,7 +32713,7 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B48" s="5">
         <v>2017.0</v>
@@ -32747,7 +32741,7 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B49" s="5">
         <v>2016.0</v>
@@ -32775,7 +32769,7 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B50" s="5">
         <v>2014.0</v>
@@ -32803,7 +32797,7 @@
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B51" s="5">
         <v>2018.0</v>
@@ -32831,7 +32825,7 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B52" s="5">
         <v>2017.0</v>
@@ -32859,7 +32853,7 @@
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B53" s="5">
         <v>2018.0</v>
@@ -32887,7 +32881,7 @@
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B54" s="5">
         <v>2017.0</v>
@@ -32915,7 +32909,7 @@
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B55" s="5">
         <v>2015.0</v>
@@ -32943,7 +32937,7 @@
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B56" s="5">
         <v>2013.0</v>
@@ -32971,7 +32965,7 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B57" s="5">
         <v>2018.0</v>
@@ -40994,7 +40988,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="14" t="s">
         <v>2209</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -41002,7 +40996,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="14" t="s">
         <v>2211</v>
       </c>
       <c r="B7" s="23" t="s">
